--- a/Testdata/Non_Oncology/Templates/ManagePopulations/EP_Continuous/LIVEHTA Automation-Test_Non_Oncology_Pop_Continuous-Master Template.xlsx
+++ b/Testdata/Non_Oncology/Templates/ManagePopulations/EP_Continuous/LIVEHTA Automation-Test_Non_Oncology_Pop_Continuous-Master Template.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavanya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Cytel\Templates\Non-Oncology\Test Environment\Test_Non_Oncology_Pop_Continuous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E31460B-4381-4271-B1A3-FC27293CA913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22979A0D-2594-455B-967D-C553BB5403BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publication sheet upload" sheetId="5" r:id="rId1"/>
     <sheet name="Extraction sheet upload" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Extraction sheet upload'!$B$5:$IN$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Extraction sheet upload'!$B$5:$IP$8</definedName>
   </definedNames>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="582">
   <si>
     <t>SLR Type</t>
   </si>
@@ -1197,7 +1197,7 @@
     <t>Symptom Summary - Baseline</t>
   </si>
   <si>
-    <t xml:space="preserve">Symptom Summary -  Change from baseline</t>
+    <t>Symptom Summary -  Change from baseline</t>
   </si>
   <si>
     <t>Symptom Summary - Difference between arms</t>
@@ -1422,7 +1422,7 @@
     <t xml:space="preserve">Extraction_AnalysisType: Enum&lt;Overall, Subgroup&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">Extraction_UpdateDate: datetime
+    <t>Extraction_UpdateDate: datetime
 Extraction_AllUpdateDates: nvarchar</t>
   </si>
   <si>
@@ -1624,7 +1624,7 @@
     <t>Choose from: Overall, Subgroup</t>
   </si>
   <si>
-    <t xml:space="preserve">Only date format yyyy-mm-dd is allowed. The data stored in this column should be a date format.
+    <t>Only date format yyyy-mm-dd is allowed. The data stored in this column should be a date format.
 Only the dates that are already added to LiveSLR under Manage update for the specific project are allowed here.
 Multiple update dates could be entered into one cell separated by commas.</t>
   </si>
@@ -1638,7 +1638,7 @@
     <t>All other short references used for the extraction. Only values present in Publication sheet Short Reference (see table above) for the same project, and the same LiveSLR Study ID and SLR Type are accepted.</t>
   </si>
   <si>
-    <t xml:space="preserve">If "related publications" is not NA, then only enter URL for the folder of all short references in primary and related publications columns. If there is no related publication, this will be NA because the URL for the primary publication will be fetched from the publication sheet. Only one working link is allowed.
+    <t>If "related publications" is not NA, then only enter URL for the folder of all short references in primary and related publications columns. If there is no related publication, this will be NA because the URL for the primary publication will be fetched from the publication sheet. Only one working link is allowed.
 This column in the report will be called "Publication or Folder URL". The publication URL will be fetched from the Publication_ArticlePdf, the folder Url will be fetched from Extraction_PublicationFolderUrl</t>
   </si>
   <si>
@@ -1648,10 +1648,10 @@
     <t>Only study name acronym. Free text</t>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <t xml:space="preserve">Choose from the options below: </t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -1660,7 +1660,7 @@
       <t xml:space="preserve">
 Clinical</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Helvetica"/>
@@ -1668,7 +1668,7 @@
       <t xml:space="preserve">: Phase 1 RCT;  Phase 1/2 RCT;  Phase 2 RCT; Phase 2/3 RCT; Phase 3 RCT; Phase 4 RCT; Phase NR RCT; Pre-clinical RCT; Phase 1 Single-arm; Phase 1/2 Single-arm; Phase 2 Single-arm; Phase 2/3 Single-arm; Phase 3 Single-arm; Phase 4 Single-arm; Phase NR Single-arm; Pre-clinical Single-arm; Phase 1 Non-RCT; Phase 1/2 Non-RCT; Phase 2 Non-RCT; Phase 2/3 Non-RCT; Phase 3 Non-RCT; Phase 4 Non-RCT; Phase NR Non-RCT; Pre-clinical Non-RCT; SLR; Meta-analysis; NMA; Pooled analysis; NR; Prospective Multicenter; Prospective Single-center; Retrospective Multicenter; Retrospective Single-center; Database Analysis
 </t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -1676,7 +1676,7 @@
       </rPr>
       <t>QOL</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Helvetica"/>
@@ -1684,7 +1684,7 @@
       <t xml:space="preserve">: RCT; Single-arm; Prospective observational; Retrospective; Survey; CEA/CUA; Other; NR
 </t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -1692,7 +1692,7 @@
       </rPr>
       <t>Econ</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Helvetica"/>
@@ -1700,7 +1700,7 @@
       <t xml:space="preserve">: CEA/CUA; BIM; Cost/HCRU; HTA; ITC; Other
 </t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -1708,7 +1708,7 @@
       </rPr>
       <t>RWE</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Helvetica"/>
@@ -1759,7 +1759,7 @@
     <t>Choose among "Any", "TE", "TR"</t>
   </si>
   <si>
-    <t xml:space="preserve">Year for cost input for the inflation adjustment
+    <t>Year for cost input for the inflation adjustment
 If the year is not reported, then copy the year of the publication. Therefore, NR is NOT allowed. 4-digit numbers to indicate the year.</t>
   </si>
   <si>
@@ -1769,7 +1769,7 @@
     <t>remove and use custom column</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank, NA and NR are NOT allowed.
+    <t>Blank, NA and NR are NOT allowed.
 Each extraction cannot be assigned to multiple Study Types. Only 1 is chosen.</t>
   </si>
   <si>
@@ -1779,95 +1779,110 @@
     <t>Blank, NA and NR are NOT allowed</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank is NOT allowed.
+    <t>Blank is NOT allowed.
 NA or NR is only allowed when the FA-3 (Analysis type) is not “Subgroup”</t>
   </si>
   <si>
     <t>Blank, NA or NR are NOT allowed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NR are NOT allowed.
+    <t>Blank and NR are NOT allowed.
 NA is allowed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NR are NOT allowed.
+    <t>Blank and NR are NOT allowed.
 NA is allowed.
 Has to be a working link</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are NOT allowed. 
+    <t>Blank and NA are NOT allowed. 
 NR is allowed</t>
   </si>
   <si>
     <t>Blank NA and NR are NOT allowed, unless NR is specified in the “Possible values” column</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are NOT allowed.
+    <t>Blank and NA are NOT allowed.
 NR is allowed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are NOT allowed.
+    <t>Blank and NA are NOT allowed.
 NR is allowed (must be added to LSLR_Products table)</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are NOT allowed.
+    <t>Blank and NA are NOT allowed.
 NR is allowed</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are NOT allowed.
+    <t>Blank and NA are NOT allowed.
 Only number values are allowed here.
 NR is allowed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are NOT allowed.
+    <t>Blank and NA are NOT allowed.
 NR is allowed. 
 Only numbers are allowed here.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are NOT allowed.
+    <t>Blank and NA are NOT allowed.
 NR is allowed.
 Only values described above are allowed</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are NOT allowed.
+    <t>Blank and NA are NOT allowed.
 NR is allowed. 
 Only “Median” or “Mean” are allowed as values</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are NOT allowed.
+    <t>Blank and NA are NOT allowed.
 NR is allowed. 
 Only values described above are allowed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are NOT allowed.
+    <t>Blank and NA are NOT allowed.
 NR is allowed. 
 Only numbers or “Ref” are allowed here.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are only allowed when the SLR type is different from Quality of Life.
+    <t>Blank and NA are only allowed when the SLR type is different from Quality of Life.
 NR is allowed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are only allowed when the SLR type is different from Quality of Life.
+    <t>Blank and NA are only allowed when the SLR type is different from Quality of Life.
 NR is allowed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are only allowed when the SLR type is different from Economic.
+    <t>Blank and NA are only allowed when the SLR type is different from Economic.
 NR is not allowed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank is only allowed when the SLR type is different from Economic.
+    <t>Blank is only allowed when the SLR type is different from Economic.
 NA is only allowed when: 1) SLR type is not Economic OR 2) SLR type is Economic and Economic Study Design is not CEA/CUA, BIM, HTA
 NR is allowed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank is only allowed when the SLR type is different from Economic.
+    <t>Blank is only allowed when the SLR type is different from Economic.
 NA is only allowed when: 1) SLR type is not Economic OR 2) SLR type is Economic and Economic Study Design is not Cost/HCRU, ITC, Other
 NR is allowed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank and NA are only allowed when the SLR type is different from Real-world Evidence.
+    <t>Blank and NA are only allowed when the SLR type is different from Real-world Evidence.
 NR is allowed.</t>
+  </si>
+  <si>
+    <t>C-4</t>
+  </si>
+  <si>
+    <t>C-5</t>
+  </si>
+  <si>
+    <t>Follow-up Period Unit</t>
+  </si>
+  <si>
+    <t>Extraction_FollowUpPeriod: Number</t>
+  </si>
+  <si>
+    <t>Extraction_FollowUpPeriodUnit: string</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1892,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2344,226 +2359,204 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="3" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="4" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="5" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="6" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="10" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="11" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="12" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="13" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="16" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="17" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="18" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="19" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+  <cellXfs count="98">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="12" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="11" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="15" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="10" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="10" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="10" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="10" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="10" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="16" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="16" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="17" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="17" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="17" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="17" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="17" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="17" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="17" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="18" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="18" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="18" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="18" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="18" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="19" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="19" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="19" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="19" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="19" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="19" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="20" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="20" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="20" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="20" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="20" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="20" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="21" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="21" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="21" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="21" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="21" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="21" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="22" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="22" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="22" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="22" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="22" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="14" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="14" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="14" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="8" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="8" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="7" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="9" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="17" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="17" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="17" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="23" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="23" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="23" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="23" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="17" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="24" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="24" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="24" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="25" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="25" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="25" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="26" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="26" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="26" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="13" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="13" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="27" applyFill="1" borderId="8" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="27" applyFill="1" borderId="9" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="27" applyFill="1" borderId="10" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="28" applyFill="1" borderId="8" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="28" applyFill="1" borderId="9" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="28" applyFill="1" borderId="10" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="18" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="24" applyFill="1" borderId="8" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="24" applyFill="1" borderId="9" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="24" applyFill="1" borderId="10" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="25" applyFill="1" borderId="8" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="25" applyFill="1" borderId="9" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="28" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="28" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="28" applyFill="1" borderId="8" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="28" applyFill="1" borderId="10" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="15" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="29" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="29" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="Bad 2" xfId="1"/>
-    <cellStyle name="Currency 2" xfId="2"/>
-    <cellStyle name="Good 2" xfId="3"/>
-    <cellStyle name="Neutral 2" xfId="4"/>
+    <cellStyle name="Bad 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Currency 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Good 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Neutral 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="5"/>
-    <cellStyle name="Normal 12" xfId="6"/>
-    <cellStyle name="Normal 2" xfId="7"/>
-    <cellStyle name="Normal 2 4" xfId="8"/>
-    <cellStyle name="Normal 2 5 2 2" xfId="9"/>
-    <cellStyle name="Normal 2 5 2 2 2" xfId="10"/>
-    <cellStyle name="Normal 2 6" xfId="11"/>
-    <cellStyle name="Normal 2 6 2" xfId="12"/>
-    <cellStyle name="Normal 3" xfId="13"/>
-    <cellStyle name="Normal 3 2" xfId="14"/>
-    <cellStyle name="Normal 3 3" xfId="15"/>
-    <cellStyle name="Normal 4" xfId="16"/>
-    <cellStyle name="Normal 5" xfId="17"/>
-    <cellStyle name="Percent 2 2" xfId="18"/>
-    <cellStyle name="Percent 3" xfId="19"/>
-    <cellStyle name="Style 1" xfId="20"/>
+    <cellStyle name="Normal 10" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 12" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2 5 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2 5 2 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2 6" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 2 6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Style 1" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2796,78 +2789,77 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="24.58203125" customWidth="1" style="21"/>
-    <col min="4" max="4" width="26.58203125" customWidth="1" style="21"/>
-    <col min="5" max="5" width="25.08203125" customWidth="1"/>
+    <col min="1" max="3" width="24.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.09765625" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="27.08203125" customWidth="1"/>
-    <col min="8" max="8" width="22.4140625" customWidth="1"/>
-    <col min="9" max="9" width="24.08203125" customWidth="1"/>
+    <col min="7" max="7" width="27.09765625" customWidth="1"/>
+    <col min="8" max="8" width="22.3984375" customWidth="1"/>
+    <col min="9" max="9" width="24.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="31">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2876,4640 +2868,4673 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:IR8"/>
+  <dimension ref="A1:IT8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="AL1" sqref="AL1:AO8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.9140625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="19.4140625" customWidth="1" outlineLevel="1" style="21"/>
-    <col min="7" max="7" width="20.08203125" customWidth="1" outlineLevel="1" style="21"/>
-    <col min="8" max="8" width="45.9140625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="21.9140625" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="25.58203125" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="25.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="20.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="16.8984375" customWidth="1"/>
+    <col min="2" max="2" width="27.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="23.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="27.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="19.3984375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="20.09765625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="45.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="21.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="25.59765625" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="25.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="20.69921875" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="25.5" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="21.69921875" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="23" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="21.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="26.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="21.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="21.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="26.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="21.19921875" customWidth="1" outlineLevel="1"/>
     <col min="19" max="20" width="24" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="21.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="24" width="22.58203125" customWidth="1" outlineLevel="2"/>
-    <col min="25" max="25" width="18.08203125" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="16.58203125" customWidth="1" outlineLevel="2"/>
+    <col min="21" max="21" width="21.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="24" width="22.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="25" max="25" width="18.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="16.59765625" customWidth="1" outlineLevel="2"/>
     <col min="27" max="27" width="20" customWidth="1" outlineLevel="2"/>
-    <col min="28" max="28" width="19.6640625" customWidth="1" outlineLevel="2"/>
-    <col min="29" max="29" width="12.9140625" customWidth="1" outlineLevel="2"/>
+    <col min="28" max="28" width="19.69921875" customWidth="1" outlineLevel="2"/>
+    <col min="29" max="29" width="12.8984375" customWidth="1" outlineLevel="2"/>
     <col min="30" max="30" width="12.5" customWidth="1" outlineLevel="2"/>
-    <col min="31" max="32" width="14.58203125" customWidth="1" outlineLevel="2"/>
-    <col min="33" max="34" width="12.58203125" customWidth="1" outlineLevel="2"/>
-    <col min="35" max="36" width="16.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="37" max="37" width="29.58203125" customWidth="1"/>
-    <col min="38" max="38" width="26.9140625" customWidth="1" outlineLevel="2"/>
-    <col min="39" max="39" width="26.4140625" customWidth="1" outlineLevel="2"/>
-    <col min="40" max="40" width="24.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="42" width="25.6640625" customWidth="1" outlineLevel="2"/>
-    <col min="43" max="43" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="44" max="44" width="17.58203125" customWidth="1" outlineLevel="2"/>
-    <col min="45" max="47" width="20.9140625" customWidth="1" outlineLevel="2"/>
-    <col min="48" max="48" width="15.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="49" max="50" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="51" max="51" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="52" max="54" width="19.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="55" max="55" width="30.9140625" customWidth="1" outlineLevel="2"/>
-    <col min="56" max="56" width="15.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="57" max="57" width="15.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="58" max="58" width="20.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="59" max="60" width="12.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="61" max="62" width="24.58203125" customWidth="1" outlineLevel="2"/>
-    <col min="63" max="63" width="18.4140625" customWidth="1" outlineLevel="2"/>
-    <col min="64" max="68" width="12.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="69" max="70" width="25.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="71" max="71" width="24.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="72" max="73" width="25.6640625" customWidth="1" outlineLevel="2"/>
-    <col min="74" max="74" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="75" max="75" width="17.58203125" customWidth="1" outlineLevel="2"/>
-    <col min="76" max="78" width="20.9140625" customWidth="1" outlineLevel="2"/>
-    <col min="79" max="79" width="15.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="80" max="81" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="82" max="82" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="83" max="85" width="19.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="86" max="86" width="30.9140625" customWidth="1" outlineLevel="2"/>
-    <col min="87" max="87" width="15.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="88" max="88" width="15.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="89" max="89" width="20.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="90" max="91" width="12.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="92" max="93" width="24.58203125" customWidth="1" outlineLevel="2"/>
-    <col min="94" max="94" width="18.4140625" customWidth="1" outlineLevel="2"/>
-    <col min="95" max="99" width="12.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="100" max="101" width="25.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="102" max="102" width="24.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="103" max="104" width="25.6640625" customWidth="1" outlineLevel="2"/>
-    <col min="105" max="105" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="106" max="106" width="17.58203125" customWidth="1" outlineLevel="2"/>
-    <col min="107" max="109" width="20.9140625" customWidth="1" outlineLevel="2"/>
-    <col min="110" max="110" width="15.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="111" max="112" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="113" max="113" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="114" max="116" width="19.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="117" max="117" width="30.9140625" customWidth="1" outlineLevel="2"/>
-    <col min="118" max="118" width="15.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="119" max="119" width="15.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="120" max="120" width="20.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="121" max="122" width="12.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="123" max="124" width="24.58203125" customWidth="1" outlineLevel="2"/>
-    <col min="125" max="125" width="18.4140625" customWidth="1" outlineLevel="2"/>
-    <col min="126" max="130" width="12.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="131" max="132" width="25.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="133" max="134" width="22.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="135" max="135" width="21.08203125" customWidth="1" outlineLevel="1"/>
-    <col min="136" max="136" width="18.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="137" max="137" width="20.6640625" customWidth="1" outlineLevel="2"/>
-    <col min="138" max="138" width="18.08203125" customWidth="1" outlineLevel="2"/>
-    <col min="139" max="139" width="19.5" customWidth="1" outlineLevel="2"/>
-    <col min="140" max="141" width="14.58203125" customWidth="1" outlineLevel="2"/>
-    <col min="142" max="142" width="18.9140625" customWidth="1"/>
-    <col min="143" max="147" width="18.9140625" customWidth="1" outlineLevel="1"/>
-    <col min="148" max="149" width="24.5" customWidth="1" outlineLevel="1"/>
-    <col min="150" max="158" width="17.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="159" max="160" width="17.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="161" max="169" width="19.4140625" customWidth="1" outlineLevel="1"/>
-    <col min="170" max="173" width="18.9140625" customWidth="1" outlineLevel="1"/>
-    <col min="174" max="174" width="20.9140625" customWidth="1"/>
-    <col min="175" max="175" width="20.9140625" customWidth="1" outlineLevel="1"/>
-    <col min="176" max="177" width="18.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="178" max="185" width="19" customWidth="1" outlineLevel="1"/>
-    <col min="186" max="187" width="16.9140625" customWidth="1" outlineLevel="1"/>
-    <col min="188" max="197" width="19" customWidth="1" outlineLevel="1"/>
-    <col min="198" max="199" width="15.08203125" customWidth="1" outlineLevel="1"/>
-    <col min="200" max="200" width="13.5" customWidth="1" outlineLevel="1"/>
-    <col min="201" max="201" width="19.08203125" customWidth="1" outlineLevel="1"/>
-    <col min="202" max="202" width="18.58203125" customWidth="1" outlineLevel="1"/>
-    <col min="203" max="203" width="13.5" customWidth="1" outlineLevel="1"/>
-    <col min="204" max="204" width="18.58203125" customWidth="1" outlineLevel="1"/>
-    <col min="205" max="209" width="14.9140625" customWidth="1" outlineLevel="1"/>
-    <col min="210" max="211" width="18.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="212" max="240" width="14.9140625" customWidth="1" outlineLevel="1"/>
-    <col min="241" max="241" width="15.5" customWidth="1"/>
-    <col min="242" max="242" width="12.08203125" customWidth="1" outlineLevel="1"/>
-    <col min="243" max="244" width="20" customWidth="1" outlineLevel="1"/>
-    <col min="245" max="250" width="12.08203125" customWidth="1" outlineLevel="1"/>
-    <col min="251" max="252" width="12.58203125" customWidth="1" outlineLevel="1"/>
-    <col min="264" max="266" width="12.58203125" customWidth="1"/>
+    <col min="31" max="32" width="14.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="33" max="34" width="12.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="35" max="36" width="16.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="37" max="39" width="29.59765625" customWidth="1"/>
+    <col min="40" max="40" width="26.8984375" customWidth="1" outlineLevel="2"/>
+    <col min="41" max="41" width="26.3984375" customWidth="1" outlineLevel="2"/>
+    <col min="42" max="42" width="24.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="43" max="44" width="25.69921875" customWidth="1" outlineLevel="2"/>
+    <col min="45" max="45" width="19" customWidth="1" outlineLevel="2"/>
+    <col min="46" max="46" width="17.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="47" max="49" width="20.8984375" customWidth="1" outlineLevel="2"/>
+    <col min="50" max="50" width="15.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="51" max="53" width="19" customWidth="1" outlineLevel="2"/>
+    <col min="54" max="56" width="19.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="57" max="57" width="30.8984375" customWidth="1" outlineLevel="2"/>
+    <col min="58" max="58" width="15.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="59" max="59" width="15.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="60" max="60" width="20.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="61" max="62" width="12.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="63" max="64" width="24.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="65" max="65" width="18.3984375" customWidth="1" outlineLevel="2"/>
+    <col min="66" max="70" width="12.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="71" max="72" width="25.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="73" max="73" width="24.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="74" max="75" width="25.69921875" customWidth="1" outlineLevel="2"/>
+    <col min="76" max="76" width="19" customWidth="1" outlineLevel="2"/>
+    <col min="77" max="77" width="17.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="78" max="80" width="20.8984375" customWidth="1" outlineLevel="2"/>
+    <col min="81" max="81" width="15.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="82" max="84" width="19" customWidth="1" outlineLevel="2"/>
+    <col min="85" max="87" width="19.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="88" max="88" width="30.8984375" customWidth="1" outlineLevel="2"/>
+    <col min="89" max="89" width="15.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="90" max="90" width="15.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="91" max="91" width="20.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="92" max="93" width="12.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="94" max="95" width="24.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="96" max="96" width="18.3984375" customWidth="1" outlineLevel="2"/>
+    <col min="97" max="101" width="12.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="102" max="103" width="25.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="104" max="104" width="24.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="105" max="106" width="25.69921875" customWidth="1" outlineLevel="2"/>
+    <col min="107" max="107" width="19" customWidth="1" outlineLevel="2"/>
+    <col min="108" max="108" width="17.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="109" max="111" width="20.8984375" customWidth="1" outlineLevel="2"/>
+    <col min="112" max="112" width="15.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="113" max="115" width="19" customWidth="1" outlineLevel="2"/>
+    <col min="116" max="118" width="19.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="119" max="119" width="30.8984375" customWidth="1" outlineLevel="2"/>
+    <col min="120" max="120" width="15.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="121" max="121" width="15.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="122" max="122" width="20.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="123" max="124" width="12.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="125" max="126" width="24.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="127" max="127" width="18.3984375" customWidth="1" outlineLevel="2"/>
+    <col min="128" max="132" width="12.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="133" max="134" width="25.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="135" max="136" width="22.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="137" max="137" width="21.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="138" max="138" width="18.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="139" max="139" width="20.69921875" customWidth="1" outlineLevel="2"/>
+    <col min="140" max="140" width="18.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="141" max="141" width="19.5" customWidth="1" outlineLevel="2"/>
+    <col min="142" max="143" width="14.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="144" max="144" width="18.8984375" customWidth="1"/>
+    <col min="145" max="149" width="18.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="150" max="151" width="24.5" customWidth="1" outlineLevel="1"/>
+    <col min="152" max="160" width="17.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="161" max="162" width="17.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="163" max="171" width="19.3984375" customWidth="1" outlineLevel="1"/>
+    <col min="172" max="175" width="18.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="176" max="176" width="20.8984375" customWidth="1"/>
+    <col min="177" max="177" width="20.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="178" max="179" width="18.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="180" max="187" width="19" customWidth="1" outlineLevel="1"/>
+    <col min="188" max="189" width="16.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="190" max="199" width="19" customWidth="1" outlineLevel="1"/>
+    <col min="200" max="201" width="15.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="202" max="202" width="13.5" customWidth="1" outlineLevel="1"/>
+    <col min="203" max="203" width="19.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="204" max="204" width="18.59765625" customWidth="1" outlineLevel="1"/>
+    <col min="205" max="205" width="13.5" customWidth="1" outlineLevel="1"/>
+    <col min="206" max="206" width="18.59765625" customWidth="1" outlineLevel="1"/>
+    <col min="207" max="211" width="14.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="212" max="213" width="18.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="214" max="242" width="14.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="243" max="243" width="15.5" customWidth="1"/>
+    <col min="244" max="244" width="12.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="245" max="246" width="20" customWidth="1" outlineLevel="1"/>
+    <col min="247" max="252" width="12.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="253" max="254" width="12.59765625" customWidth="1" outlineLevel="1"/>
+    <col min="266" max="268" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.4" customHeight="1" s="78" customFormat="1">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:254" s="58" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="73" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74"/>
-      <c r="AT1" s="74"/>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74"/>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="74"/>
-      <c r="BA1" s="74"/>
-      <c r="BB1" s="74"/>
-      <c r="BC1" s="74"/>
-      <c r="BD1" s="74"/>
-      <c r="BE1" s="74"/>
-      <c r="BF1" s="74"/>
-      <c r="BG1" s="74"/>
-      <c r="BH1" s="74"/>
-      <c r="BI1" s="74"/>
-      <c r="BJ1" s="74"/>
-      <c r="BK1" s="74"/>
-      <c r="BL1" s="74"/>
-      <c r="BM1" s="74"/>
-      <c r="BN1" s="74"/>
-      <c r="BO1" s="74"/>
-      <c r="BP1" s="74"/>
-      <c r="BQ1" s="74"/>
-      <c r="BR1" s="74"/>
-      <c r="BS1" s="73"/>
-      <c r="BT1" s="74"/>
-      <c r="BU1" s="74"/>
-      <c r="BV1" s="74"/>
-      <c r="BW1" s="74"/>
-      <c r="BX1" s="74"/>
-      <c r="BY1" s="74"/>
-      <c r="BZ1" s="74"/>
-      <c r="CA1" s="74"/>
-      <c r="CB1" s="74"/>
-      <c r="CC1" s="74"/>
-      <c r="CD1" s="74"/>
-      <c r="CE1" s="74"/>
-      <c r="CF1" s="74"/>
-      <c r="CG1" s="74"/>
-      <c r="CH1" s="74"/>
-      <c r="CI1" s="74"/>
-      <c r="CJ1" s="74"/>
-      <c r="CK1" s="74"/>
-      <c r="CL1" s="74"/>
-      <c r="CM1" s="74"/>
-      <c r="CN1" s="74"/>
-      <c r="CO1" s="74"/>
-      <c r="CP1" s="74"/>
-      <c r="CQ1" s="74"/>
-      <c r="CR1" s="74"/>
-      <c r="CS1" s="74"/>
-      <c r="CT1" s="74"/>
-      <c r="CU1" s="74"/>
-      <c r="CV1" s="74"/>
-      <c r="CW1" s="74"/>
-      <c r="CX1" s="74"/>
-      <c r="CY1" s="74"/>
-      <c r="CZ1" s="74"/>
-      <c r="DA1" s="74"/>
-      <c r="DB1" s="74"/>
-      <c r="DC1" s="74"/>
-      <c r="DD1" s="74"/>
-      <c r="DE1" s="74"/>
-      <c r="DF1" s="74"/>
-      <c r="DG1" s="74"/>
-      <c r="DH1" s="74"/>
-      <c r="DI1" s="74"/>
-      <c r="DJ1" s="74"/>
-      <c r="DK1" s="74"/>
-      <c r="DL1" s="74"/>
-      <c r="DM1" s="74"/>
-      <c r="DN1" s="74"/>
-      <c r="DO1" s="74"/>
-      <c r="DP1" s="74"/>
-      <c r="DQ1" s="74"/>
-      <c r="DR1" s="74"/>
-      <c r="DS1" s="74"/>
-      <c r="DT1" s="74"/>
-      <c r="DU1" s="74"/>
-      <c r="DV1" s="74"/>
-      <c r="DW1" s="74"/>
-      <c r="DX1" s="74"/>
-      <c r="DY1" s="74"/>
-      <c r="DZ1" s="74"/>
-      <c r="EA1" s="74"/>
-      <c r="EB1" s="74"/>
-      <c r="EC1" s="74"/>
-      <c r="ED1" s="74"/>
-      <c r="EE1" s="74"/>
-      <c r="EF1" s="74"/>
-      <c r="EG1" s="74"/>
-      <c r="EH1" s="74"/>
-      <c r="EI1" s="74"/>
-      <c r="EJ1" s="74"/>
-      <c r="EK1" s="74"/>
-      <c r="EL1" s="75" t="s">
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="54"/>
+      <c r="BK1" s="54"/>
+      <c r="BL1" s="54"/>
+      <c r="BM1" s="54"/>
+      <c r="BN1" s="54"/>
+      <c r="BO1" s="54"/>
+      <c r="BP1" s="54"/>
+      <c r="BQ1" s="54"/>
+      <c r="BR1" s="54"/>
+      <c r="BS1" s="54"/>
+      <c r="BT1" s="54"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="54"/>
+      <c r="BW1" s="54"/>
+      <c r="BX1" s="54"/>
+      <c r="BY1" s="54"/>
+      <c r="BZ1" s="54"/>
+      <c r="CA1" s="54"/>
+      <c r="CB1" s="54"/>
+      <c r="CC1" s="54"/>
+      <c r="CD1" s="54"/>
+      <c r="CE1" s="54"/>
+      <c r="CF1" s="54"/>
+      <c r="CG1" s="54"/>
+      <c r="CH1" s="54"/>
+      <c r="CI1" s="54"/>
+      <c r="CJ1" s="54"/>
+      <c r="CK1" s="54"/>
+      <c r="CL1" s="54"/>
+      <c r="CM1" s="54"/>
+      <c r="CN1" s="54"/>
+      <c r="CO1" s="54"/>
+      <c r="CP1" s="54"/>
+      <c r="CQ1" s="54"/>
+      <c r="CR1" s="54"/>
+      <c r="CS1" s="54"/>
+      <c r="CT1" s="54"/>
+      <c r="CU1" s="54"/>
+      <c r="CV1" s="54"/>
+      <c r="CW1" s="54"/>
+      <c r="CX1" s="54"/>
+      <c r="CY1" s="54"/>
+      <c r="CZ1" s="54"/>
+      <c r="DA1" s="54"/>
+      <c r="DB1" s="54"/>
+      <c r="DC1" s="54"/>
+      <c r="DD1" s="54"/>
+      <c r="DE1" s="54"/>
+      <c r="DF1" s="54"/>
+      <c r="DG1" s="54"/>
+      <c r="DH1" s="54"/>
+      <c r="DI1" s="54"/>
+      <c r="DJ1" s="54"/>
+      <c r="DK1" s="54"/>
+      <c r="DL1" s="54"/>
+      <c r="DM1" s="54"/>
+      <c r="DN1" s="54"/>
+      <c r="DO1" s="54"/>
+      <c r="DP1" s="54"/>
+      <c r="DQ1" s="54"/>
+      <c r="DR1" s="54"/>
+      <c r="DS1" s="54"/>
+      <c r="DT1" s="54"/>
+      <c r="DU1" s="54"/>
+      <c r="DV1" s="54"/>
+      <c r="DW1" s="54"/>
+      <c r="DX1" s="54"/>
+      <c r="DY1" s="54"/>
+      <c r="DZ1" s="54"/>
+      <c r="EA1" s="54"/>
+      <c r="EB1" s="54"/>
+      <c r="EC1" s="54"/>
+      <c r="ED1" s="54"/>
+      <c r="EE1" s="54"/>
+      <c r="EF1" s="54"/>
+      <c r="EG1" s="54"/>
+      <c r="EH1" s="54"/>
+      <c r="EI1" s="54"/>
+      <c r="EJ1" s="54"/>
+      <c r="EK1" s="54"/>
+      <c r="EL1" s="54"/>
+      <c r="EM1" s="54"/>
+      <c r="EN1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="EM1" s="75"/>
-      <c r="EN1" s="75"/>
-      <c r="EO1" s="75"/>
-      <c r="EP1" s="75"/>
-      <c r="EQ1" s="75"/>
-      <c r="ER1" s="75"/>
-      <c r="ES1" s="75"/>
-      <c r="ET1" s="75"/>
-      <c r="EU1" s="75"/>
-      <c r="EV1" s="75"/>
-      <c r="EW1" s="75"/>
-      <c r="EX1" s="75"/>
-      <c r="EY1" s="75"/>
-      <c r="EZ1" s="75"/>
-      <c r="FA1" s="75"/>
-      <c r="FB1" s="75"/>
-      <c r="FC1" s="75"/>
-      <c r="FD1" s="75"/>
-      <c r="FE1" s="75"/>
-      <c r="FF1" s="75"/>
-      <c r="FG1" s="75"/>
-      <c r="FH1" s="75"/>
-      <c r="FI1" s="75"/>
-      <c r="FJ1" s="75"/>
-      <c r="FK1" s="75"/>
-      <c r="FL1" s="75"/>
-      <c r="FM1" s="75"/>
-      <c r="FN1" s="75"/>
-      <c r="FO1" s="75"/>
-      <c r="FP1" s="75"/>
-      <c r="FQ1" s="75"/>
-      <c r="FR1" s="76" t="s">
+      <c r="EO1" s="55"/>
+      <c r="EP1" s="55"/>
+      <c r="EQ1" s="55"/>
+      <c r="ER1" s="55"/>
+      <c r="ES1" s="55"/>
+      <c r="ET1" s="55"/>
+      <c r="EU1" s="55"/>
+      <c r="EV1" s="55"/>
+      <c r="EW1" s="55"/>
+      <c r="EX1" s="55"/>
+      <c r="EY1" s="55"/>
+      <c r="EZ1" s="55"/>
+      <c r="FA1" s="55"/>
+      <c r="FB1" s="55"/>
+      <c r="FC1" s="55"/>
+      <c r="FD1" s="55"/>
+      <c r="FE1" s="55"/>
+      <c r="FF1" s="55"/>
+      <c r="FG1" s="55"/>
+      <c r="FH1" s="55"/>
+      <c r="FI1" s="55"/>
+      <c r="FJ1" s="55"/>
+      <c r="FK1" s="55"/>
+      <c r="FL1" s="55"/>
+      <c r="FM1" s="55"/>
+      <c r="FN1" s="55"/>
+      <c r="FO1" s="55"/>
+      <c r="FP1" s="55"/>
+      <c r="FQ1" s="55"/>
+      <c r="FR1" s="55"/>
+      <c r="FS1" s="55"/>
+      <c r="FT1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="FS1" s="76"/>
-      <c r="FT1" s="76"/>
-      <c r="FU1" s="76"/>
-      <c r="FV1" s="76"/>
-      <c r="FW1" s="76"/>
-      <c r="FX1" s="76"/>
-      <c r="FY1" s="76"/>
-      <c r="FZ1" s="76"/>
-      <c r="GA1" s="76"/>
-      <c r="GB1" s="76"/>
-      <c r="GC1" s="76"/>
-      <c r="GD1" s="76"/>
-      <c r="GE1" s="76"/>
-      <c r="GF1" s="76"/>
-      <c r="GG1" s="76"/>
-      <c r="GH1" s="76"/>
-      <c r="GI1" s="76"/>
-      <c r="GJ1" s="76"/>
-      <c r="GK1" s="76"/>
-      <c r="GL1" s="76"/>
-      <c r="GM1" s="76"/>
-      <c r="GN1" s="76"/>
-      <c r="GO1" s="76"/>
-      <c r="GP1" s="76"/>
-      <c r="GQ1" s="76"/>
-      <c r="GR1" s="76"/>
-      <c r="GS1" s="76"/>
-      <c r="GT1" s="76"/>
-      <c r="GU1" s="76"/>
-      <c r="GV1" s="76"/>
-      <c r="GW1" s="76"/>
-      <c r="GX1" s="76"/>
-      <c r="GY1" s="76"/>
-      <c r="GZ1" s="76"/>
-      <c r="HA1" s="76"/>
-      <c r="HB1" s="76"/>
-      <c r="HC1" s="76"/>
-      <c r="HD1" s="76"/>
-      <c r="HE1" s="76"/>
-      <c r="HF1" s="76"/>
-      <c r="HG1" s="76"/>
-      <c r="HH1" s="76"/>
-      <c r="HI1" s="76"/>
-      <c r="HJ1" s="76"/>
-      <c r="HK1" s="76"/>
-      <c r="HL1" s="76"/>
-      <c r="HM1" s="76"/>
-      <c r="HN1" s="76"/>
-      <c r="HO1" s="76"/>
-      <c r="HP1" s="76"/>
-      <c r="HQ1" s="76"/>
-      <c r="HR1" s="76"/>
-      <c r="HS1" s="76"/>
-      <c r="HT1" s="76"/>
-      <c r="HU1" s="76"/>
-      <c r="HV1" s="76"/>
-      <c r="HW1" s="76"/>
-      <c r="HX1" s="76"/>
-      <c r="HY1" s="76"/>
-      <c r="HZ1" s="76"/>
-      <c r="IA1" s="76"/>
-      <c r="IB1" s="76"/>
-      <c r="IC1" s="76"/>
-      <c r="ID1" s="76"/>
-      <c r="IE1" s="76"/>
-      <c r="IF1" s="76"/>
-      <c r="IG1" s="77" t="s">
+      <c r="FU1" s="56"/>
+      <c r="FV1" s="56"/>
+      <c r="FW1" s="56"/>
+      <c r="FX1" s="56"/>
+      <c r="FY1" s="56"/>
+      <c r="FZ1" s="56"/>
+      <c r="GA1" s="56"/>
+      <c r="GB1" s="56"/>
+      <c r="GC1" s="56"/>
+      <c r="GD1" s="56"/>
+      <c r="GE1" s="56"/>
+      <c r="GF1" s="56"/>
+      <c r="GG1" s="56"/>
+      <c r="GH1" s="56"/>
+      <c r="GI1" s="56"/>
+      <c r="GJ1" s="56"/>
+      <c r="GK1" s="56"/>
+      <c r="GL1" s="56"/>
+      <c r="GM1" s="56"/>
+      <c r="GN1" s="56"/>
+      <c r="GO1" s="56"/>
+      <c r="GP1" s="56"/>
+      <c r="GQ1" s="56"/>
+      <c r="GR1" s="56"/>
+      <c r="GS1" s="56"/>
+      <c r="GT1" s="56"/>
+      <c r="GU1" s="56"/>
+      <c r="GV1" s="56"/>
+      <c r="GW1" s="56"/>
+      <c r="GX1" s="56"/>
+      <c r="GY1" s="56"/>
+      <c r="GZ1" s="56"/>
+      <c r="HA1" s="56"/>
+      <c r="HB1" s="56"/>
+      <c r="HC1" s="56"/>
+      <c r="HD1" s="56"/>
+      <c r="HE1" s="56"/>
+      <c r="HF1" s="56"/>
+      <c r="HG1" s="56"/>
+      <c r="HH1" s="56"/>
+      <c r="HI1" s="56"/>
+      <c r="HJ1" s="56"/>
+      <c r="HK1" s="56"/>
+      <c r="HL1" s="56"/>
+      <c r="HM1" s="56"/>
+      <c r="HN1" s="56"/>
+      <c r="HO1" s="56"/>
+      <c r="HP1" s="56"/>
+      <c r="HQ1" s="56"/>
+      <c r="HR1" s="56"/>
+      <c r="HS1" s="56"/>
+      <c r="HT1" s="56"/>
+      <c r="HU1" s="56"/>
+      <c r="HV1" s="56"/>
+      <c r="HW1" s="56"/>
+      <c r="HX1" s="56"/>
+      <c r="HY1" s="56"/>
+      <c r="HZ1" s="56"/>
+      <c r="IA1" s="56"/>
+      <c r="IB1" s="56"/>
+      <c r="IC1" s="56"/>
+      <c r="ID1" s="56"/>
+      <c r="IE1" s="56"/>
+      <c r="IF1" s="56"/>
+      <c r="IG1" s="56"/>
+      <c r="IH1" s="56"/>
+      <c r="II1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="IH1" s="77"/>
-      <c r="II1" s="77"/>
-      <c r="IJ1" s="77"/>
-      <c r="IK1" s="77"/>
-      <c r="IL1" s="77"/>
-      <c r="IM1" s="77"/>
-      <c r="IN1" s="77"/>
-      <c r="IO1" s="77"/>
-      <c r="IP1" s="77"/>
-      <c r="IQ1" s="77"/>
-      <c r="IR1" s="77"/>
+      <c r="IJ1" s="57"/>
+      <c r="IK1" s="57"/>
+      <c r="IL1" s="57"/>
+      <c r="IM1" s="57"/>
+      <c r="IN1" s="57"/>
+      <c r="IO1" s="57"/>
+      <c r="IP1" s="57"/>
+      <c r="IQ1" s="57"/>
+      <c r="IR1" s="57"/>
+      <c r="IS1" s="57"/>
+      <c r="IT1" s="57"/>
     </row>
-    <row r="2" ht="23" customHeight="1" s="31" customFormat="1">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:254" s="11" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="65" t="s">
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="35" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="59" t="s">
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AO2" s="60" t="s">
+      <c r="AQ2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="53" t="s">
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="40"/>
+      <c r="BE2" s="40"/>
+      <c r="BF2" s="40"/>
+      <c r="BG2" s="40"/>
+      <c r="BH2" s="40"/>
+      <c r="BI2" s="40"/>
+      <c r="BJ2" s="40"/>
+      <c r="BK2" s="40"/>
+      <c r="BL2" s="40"/>
+      <c r="BM2" s="40"/>
+      <c r="BN2" s="40"/>
+      <c r="BO2" s="40"/>
+      <c r="BP2" s="40"/>
+      <c r="BQ2" s="40"/>
+      <c r="BR2" s="40"/>
+      <c r="BS2" s="40"/>
+      <c r="BT2" s="40"/>
+      <c r="BU2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="BT2" s="54" t="s">
+      <c r="BV2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
-      <c r="BW2" s="54"/>
-      <c r="BX2" s="54"/>
-      <c r="BY2" s="54"/>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="54"/>
-      <c r="CC2" s="54"/>
-      <c r="CD2" s="54"/>
-      <c r="CE2" s="54"/>
-      <c r="CF2" s="54"/>
-      <c r="CG2" s="54"/>
-      <c r="CH2" s="54"/>
-      <c r="CI2" s="54"/>
-      <c r="CJ2" s="54"/>
-      <c r="CK2" s="54"/>
-      <c r="CL2" s="54"/>
-      <c r="CM2" s="54"/>
-      <c r="CN2" s="54"/>
-      <c r="CO2" s="54"/>
-      <c r="CP2" s="54"/>
-      <c r="CQ2" s="54"/>
-      <c r="CR2" s="54"/>
-      <c r="CS2" s="54"/>
-      <c r="CT2" s="54"/>
-      <c r="CU2" s="54"/>
-      <c r="CV2" s="54"/>
-      <c r="CW2" s="54"/>
-      <c r="CX2" s="47" t="s">
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="34"/>
+      <c r="BZ2" s="34"/>
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="34"/>
+      <c r="CG2" s="34"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="34"/>
+      <c r="CM2" s="34"/>
+      <c r="CN2" s="34"/>
+      <c r="CO2" s="34"/>
+      <c r="CP2" s="34"/>
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="34"/>
+      <c r="CS2" s="34"/>
+      <c r="CT2" s="34"/>
+      <c r="CU2" s="34"/>
+      <c r="CV2" s="34"/>
+      <c r="CW2" s="34"/>
+      <c r="CX2" s="34"/>
+      <c r="CY2" s="34"/>
+      <c r="CZ2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="CY2" s="48" t="s">
+      <c r="DA2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="CZ2" s="48"/>
-      <c r="DA2" s="48"/>
-      <c r="DB2" s="48"/>
-      <c r="DC2" s="48"/>
-      <c r="DD2" s="48"/>
-      <c r="DE2" s="48"/>
-      <c r="DF2" s="48"/>
-      <c r="DG2" s="48"/>
-      <c r="DH2" s="48"/>
-      <c r="DI2" s="48"/>
-      <c r="DJ2" s="48"/>
-      <c r="DK2" s="48"/>
-      <c r="DL2" s="48"/>
-      <c r="DM2" s="48"/>
-      <c r="DN2" s="48"/>
-      <c r="DO2" s="48"/>
-      <c r="DP2" s="48"/>
-      <c r="DQ2" s="48"/>
-      <c r="DR2" s="48"/>
-      <c r="DS2" s="48"/>
-      <c r="DT2" s="48"/>
-      <c r="DU2" s="48"/>
-      <c r="DV2" s="48"/>
-      <c r="DW2" s="48"/>
-      <c r="DX2" s="48"/>
-      <c r="DY2" s="48"/>
-      <c r="DZ2" s="48"/>
-      <c r="EA2" s="48"/>
-      <c r="EB2" s="48"/>
-      <c r="EC2" s="42" t="s">
+      <c r="DB2" s="28"/>
+      <c r="DC2" s="28"/>
+      <c r="DD2" s="28"/>
+      <c r="DE2" s="28"/>
+      <c r="DF2" s="28"/>
+      <c r="DG2" s="28"/>
+      <c r="DH2" s="28"/>
+      <c r="DI2" s="28"/>
+      <c r="DJ2" s="28"/>
+      <c r="DK2" s="28"/>
+      <c r="DL2" s="28"/>
+      <c r="DM2" s="28"/>
+      <c r="DN2" s="28"/>
+      <c r="DO2" s="28"/>
+      <c r="DP2" s="28"/>
+      <c r="DQ2" s="28"/>
+      <c r="DR2" s="28"/>
+      <c r="DS2" s="28"/>
+      <c r="DT2" s="28"/>
+      <c r="DU2" s="28"/>
+      <c r="DV2" s="28"/>
+      <c r="DW2" s="28"/>
+      <c r="DX2" s="28"/>
+      <c r="DY2" s="28"/>
+      <c r="DZ2" s="28"/>
+      <c r="EA2" s="28"/>
+      <c r="EB2" s="28"/>
+      <c r="EC2" s="28"/>
+      <c r="ED2" s="28"/>
+      <c r="EE2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="ED2" s="43"/>
-      <c r="EE2" s="35" t="s">
+      <c r="EF2" s="23"/>
+      <c r="EG2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="EF2" s="36"/>
-      <c r="EG2" s="36"/>
-      <c r="EH2" s="36"/>
-      <c r="EI2" s="36"/>
-      <c r="EJ2" s="36"/>
-      <c r="EK2" s="37"/>
-      <c r="EL2" s="84" t="s">
+      <c r="EH2" s="16"/>
+      <c r="EI2" s="16"/>
+      <c r="EJ2" s="16"/>
+      <c r="EK2" s="16"/>
+      <c r="EL2" s="16"/>
+      <c r="EM2" s="17"/>
+      <c r="EN2" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="EM2" s="85"/>
-      <c r="EN2" s="85"/>
-      <c r="EO2" s="85"/>
-      <c r="EP2" s="85"/>
-      <c r="EQ2" s="85"/>
-      <c r="ER2" s="85"/>
-      <c r="ES2" s="85"/>
-      <c r="ET2" s="87" t="s">
+      <c r="EO2" s="65"/>
+      <c r="EP2" s="65"/>
+      <c r="EQ2" s="65"/>
+      <c r="ER2" s="65"/>
+      <c r="ES2" s="65"/>
+      <c r="ET2" s="65"/>
+      <c r="EU2" s="65"/>
+      <c r="EV2" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="EU2" s="88"/>
-      <c r="EV2" s="88"/>
-      <c r="EW2" s="88"/>
-      <c r="EX2" s="88"/>
-      <c r="EY2" s="88"/>
-      <c r="EZ2" s="88"/>
-      <c r="FA2" s="88"/>
-      <c r="FB2" s="88"/>
-      <c r="FC2" s="88"/>
-      <c r="FD2" s="88"/>
-      <c r="FE2" s="90" t="s">
+      <c r="EW2" s="68"/>
+      <c r="EX2" s="68"/>
+      <c r="EY2" s="68"/>
+      <c r="EZ2" s="68"/>
+      <c r="FA2" s="68"/>
+      <c r="FB2" s="68"/>
+      <c r="FC2" s="68"/>
+      <c r="FD2" s="68"/>
+      <c r="FE2" s="68"/>
+      <c r="FF2" s="68"/>
+      <c r="FG2" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="FF2" s="91"/>
-      <c r="FG2" s="91"/>
-      <c r="FH2" s="91"/>
-      <c r="FI2" s="91"/>
-      <c r="FJ2" s="91"/>
-      <c r="FK2" s="91"/>
-      <c r="FL2" s="91"/>
-      <c r="FM2" s="91"/>
-      <c r="FN2" s="91"/>
-      <c r="FO2" s="91"/>
-      <c r="FP2" s="93" t="s">
+      <c r="FH2" s="71"/>
+      <c r="FI2" s="71"/>
+      <c r="FJ2" s="71"/>
+      <c r="FK2" s="71"/>
+      <c r="FL2" s="71"/>
+      <c r="FM2" s="71"/>
+      <c r="FN2" s="71"/>
+      <c r="FO2" s="71"/>
+      <c r="FP2" s="71"/>
+      <c r="FQ2" s="71"/>
+      <c r="FR2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="FQ2" s="95"/>
-      <c r="FR2" s="84" t="s">
+      <c r="FS2" s="75"/>
+      <c r="FT2" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="FS2" s="85"/>
-      <c r="FT2" s="85"/>
-      <c r="FU2" s="85"/>
-      <c r="FV2" s="96" t="s">
+      <c r="FU2" s="65"/>
+      <c r="FV2" s="65"/>
+      <c r="FW2" s="65"/>
+      <c r="FX2" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="FW2" s="97"/>
-      <c r="FX2" s="97"/>
-      <c r="FY2" s="97"/>
-      <c r="FZ2" s="97"/>
-      <c r="GA2" s="97"/>
-      <c r="GB2" s="97"/>
-      <c r="GC2" s="97"/>
-      <c r="GD2" s="97"/>
-      <c r="GE2" s="97"/>
-      <c r="GF2" s="97"/>
-      <c r="GG2" s="97"/>
-      <c r="GH2" s="97"/>
-      <c r="GI2" s="97"/>
-      <c r="GJ2" s="97"/>
-      <c r="GK2" s="97"/>
-      <c r="GL2" s="97"/>
-      <c r="GM2" s="97"/>
-      <c r="GN2" s="97"/>
-      <c r="GO2" s="97"/>
-      <c r="GP2" s="97"/>
-      <c r="GQ2" s="97"/>
-      <c r="GR2" s="97"/>
-      <c r="GS2" s="97"/>
-      <c r="GT2" s="97"/>
-      <c r="GU2" s="97"/>
-      <c r="GV2" s="97"/>
-      <c r="GW2" s="97"/>
-      <c r="GX2" s="97"/>
-      <c r="GY2" s="117" t="s">
+      <c r="FY2" s="77"/>
+      <c r="FZ2" s="77"/>
+      <c r="GA2" s="77"/>
+      <c r="GB2" s="77"/>
+      <c r="GC2" s="77"/>
+      <c r="GD2" s="77"/>
+      <c r="GE2" s="77"/>
+      <c r="GF2" s="77"/>
+      <c r="GG2" s="77"/>
+      <c r="GH2" s="77"/>
+      <c r="GI2" s="77"/>
+      <c r="GJ2" s="77"/>
+      <c r="GK2" s="77"/>
+      <c r="GL2" s="77"/>
+      <c r="GM2" s="77"/>
+      <c r="GN2" s="77"/>
+      <c r="GO2" s="77"/>
+      <c r="GP2" s="77"/>
+      <c r="GQ2" s="77"/>
+      <c r="GR2" s="77"/>
+      <c r="GS2" s="77"/>
+      <c r="GT2" s="77"/>
+      <c r="GU2" s="77"/>
+      <c r="GV2" s="77"/>
+      <c r="GW2" s="77"/>
+      <c r="GX2" s="77"/>
+      <c r="GY2" s="77"/>
+      <c r="GZ2" s="77"/>
+      <c r="HA2" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="GZ2" s="116"/>
-      <c r="HA2" s="116"/>
-      <c r="HB2" s="116"/>
-      <c r="HC2" s="116"/>
-      <c r="HD2" s="116"/>
-      <c r="HE2" s="116"/>
-      <c r="HF2" s="116"/>
-      <c r="HG2" s="116"/>
-      <c r="HH2" s="116"/>
-      <c r="HI2" s="116"/>
-      <c r="HJ2" s="116"/>
-      <c r="HK2" s="116"/>
-      <c r="HL2" s="116"/>
-      <c r="HM2" s="116"/>
-      <c r="HN2" s="116"/>
-      <c r="HO2" s="116"/>
-      <c r="HP2" s="116"/>
-      <c r="HQ2" s="116"/>
-      <c r="HR2" s="116"/>
-      <c r="HS2" s="116"/>
-      <c r="HT2" s="116"/>
-      <c r="HU2" s="116"/>
-      <c r="HV2" s="116"/>
-      <c r="HW2" s="116"/>
-      <c r="HX2" s="116"/>
-      <c r="HY2" s="116"/>
-      <c r="HZ2" s="116"/>
-      <c r="IA2" s="116"/>
-      <c r="IB2" s="116"/>
-      <c r="IC2" s="116"/>
-      <c r="ID2" s="116"/>
-      <c r="IE2" s="110" t="s">
+      <c r="HB2" s="96"/>
+      <c r="HC2" s="96"/>
+      <c r="HD2" s="96"/>
+      <c r="HE2" s="96"/>
+      <c r="HF2" s="96"/>
+      <c r="HG2" s="96"/>
+      <c r="HH2" s="96"/>
+      <c r="HI2" s="96"/>
+      <c r="HJ2" s="96"/>
+      <c r="HK2" s="96"/>
+      <c r="HL2" s="96"/>
+      <c r="HM2" s="96"/>
+      <c r="HN2" s="96"/>
+      <c r="HO2" s="96"/>
+      <c r="HP2" s="96"/>
+      <c r="HQ2" s="96"/>
+      <c r="HR2" s="96"/>
+      <c r="HS2" s="96"/>
+      <c r="HT2" s="96"/>
+      <c r="HU2" s="96"/>
+      <c r="HV2" s="96"/>
+      <c r="HW2" s="96"/>
+      <c r="HX2" s="96"/>
+      <c r="HY2" s="96"/>
+      <c r="HZ2" s="96"/>
+      <c r="IA2" s="96"/>
+      <c r="IB2" s="96"/>
+      <c r="IC2" s="96"/>
+      <c r="ID2" s="96"/>
+      <c r="IE2" s="96"/>
+      <c r="IF2" s="96"/>
+      <c r="IG2" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="IF2" s="111"/>
-      <c r="IG2" s="22" t="s">
+      <c r="IH2" s="91"/>
+      <c r="II2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="IH2" s="22"/>
-      <c r="II2" s="22"/>
-      <c r="IJ2" s="22"/>
-      <c r="IK2" s="23" t="s">
+      <c r="IJ2" s="2"/>
+      <c r="IK2" s="2"/>
+      <c r="IL2" s="2"/>
+      <c r="IM2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="IL2" s="23"/>
-      <c r="IM2" s="23"/>
-      <c r="IN2" s="23"/>
-      <c r="IO2" s="23"/>
-      <c r="IP2" s="23"/>
-      <c r="IQ2" s="23"/>
-      <c r="IR2" s="23"/>
+      <c r="IN2" s="3"/>
+      <c r="IO2" s="3"/>
+      <c r="IP2" s="3"/>
+      <c r="IQ2" s="3"/>
+      <c r="IR2" s="3"/>
+      <c r="IS2" s="3"/>
+      <c r="IT2" s="3"/>
     </row>
-    <row r="3" ht="23" customHeight="1" s="31" customFormat="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="61" t="s">
+    <row r="3" spans="1:254" s="11" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="63" t="s">
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="63" t="s">
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="63" t="s">
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="61" t="s">
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="55" t="s">
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BT3" s="56"/>
-      <c r="BU3" s="56"/>
-      <c r="BV3" s="55" t="s">
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BW3" s="56"/>
-      <c r="BX3" s="56"/>
-      <c r="BY3" s="56"/>
-      <c r="BZ3" s="56"/>
-      <c r="CA3" s="55" t="s">
+      <c r="BY3" s="36"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="CB3" s="56"/>
-      <c r="CC3" s="56"/>
-      <c r="CD3" s="57" t="s">
+      <c r="CD3" s="36"/>
+      <c r="CE3" s="36"/>
+      <c r="CF3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="CE3" s="56"/>
-      <c r="CF3" s="56"/>
-      <c r="CG3" s="56"/>
-      <c r="CH3" s="56"/>
-      <c r="CI3" s="56"/>
-      <c r="CJ3" s="56"/>
-      <c r="CK3" s="56"/>
-      <c r="CL3" s="56"/>
-      <c r="CM3" s="56"/>
-      <c r="CN3" s="56"/>
-      <c r="CO3" s="56"/>
-      <c r="CP3" s="57" t="s">
+      <c r="CG3" s="36"/>
+      <c r="CH3" s="36"/>
+      <c r="CI3" s="36"/>
+      <c r="CJ3" s="36"/>
+      <c r="CK3" s="36"/>
+      <c r="CL3" s="36"/>
+      <c r="CM3" s="36"/>
+      <c r="CN3" s="36"/>
+      <c r="CO3" s="36"/>
+      <c r="CP3" s="36"/>
+      <c r="CQ3" s="36"/>
+      <c r="CR3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="CQ3" s="56"/>
-      <c r="CR3" s="56"/>
-      <c r="CS3" s="56"/>
-      <c r="CT3" s="56"/>
-      <c r="CU3" s="56"/>
-      <c r="CV3" s="56"/>
-      <c r="CW3" s="56"/>
-      <c r="CX3" s="49" t="s">
+      <c r="CS3" s="36"/>
+      <c r="CT3" s="36"/>
+      <c r="CU3" s="36"/>
+      <c r="CV3" s="36"/>
+      <c r="CW3" s="36"/>
+      <c r="CX3" s="36"/>
+      <c r="CY3" s="36"/>
+      <c r="CZ3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CY3" s="50"/>
-      <c r="CZ3" s="50"/>
-      <c r="DA3" s="51" t="s">
+      <c r="DA3" s="30"/>
+      <c r="DB3" s="30"/>
+      <c r="DC3" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="DB3" s="50"/>
-      <c r="DC3" s="50"/>
-      <c r="DD3" s="50"/>
-      <c r="DE3" s="50"/>
-      <c r="DF3" s="51" t="s">
+      <c r="DD3" s="30"/>
+      <c r="DE3" s="30"/>
+      <c r="DF3" s="30"/>
+      <c r="DG3" s="30"/>
+      <c r="DH3" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="DG3" s="50"/>
-      <c r="DH3" s="50"/>
-      <c r="DI3" s="51" t="s">
+      <c r="DI3" s="30"/>
+      <c r="DJ3" s="30"/>
+      <c r="DK3" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="DJ3" s="50"/>
-      <c r="DK3" s="50"/>
-      <c r="DL3" s="50"/>
-      <c r="DM3" s="50"/>
-      <c r="DN3" s="50"/>
-      <c r="DO3" s="50"/>
-      <c r="DP3" s="50"/>
-      <c r="DQ3" s="50"/>
-      <c r="DR3" s="50"/>
-      <c r="DS3" s="50"/>
-      <c r="DT3" s="50"/>
-      <c r="DU3" s="51" t="s">
+      <c r="DL3" s="30"/>
+      <c r="DM3" s="30"/>
+      <c r="DN3" s="30"/>
+      <c r="DO3" s="30"/>
+      <c r="DP3" s="30"/>
+      <c r="DQ3" s="30"/>
+      <c r="DR3" s="30"/>
+      <c r="DS3" s="30"/>
+      <c r="DT3" s="30"/>
+      <c r="DU3" s="30"/>
+      <c r="DV3" s="30"/>
+      <c r="DW3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="DV3" s="50"/>
-      <c r="DW3" s="50"/>
-      <c r="DX3" s="50"/>
-      <c r="DY3" s="50"/>
-      <c r="DZ3" s="50"/>
-      <c r="EA3" s="50"/>
-      <c r="EB3" s="50"/>
-      <c r="EC3" s="44"/>
-      <c r="ED3" s="45"/>
-      <c r="EE3" s="38"/>
-      <c r="EF3" s="39"/>
-      <c r="EG3" s="39"/>
-      <c r="EH3" s="39"/>
-      <c r="EI3" s="39"/>
-      <c r="EJ3" s="39"/>
-      <c r="EK3" s="40"/>
-      <c r="EL3" s="82"/>
-      <c r="EM3" s="83"/>
-      <c r="EN3" s="83"/>
-      <c r="EO3" s="83"/>
-      <c r="EP3" s="83"/>
-      <c r="EQ3" s="83"/>
-      <c r="ER3" s="83"/>
-      <c r="ES3" s="83"/>
-      <c r="ET3" s="87"/>
-      <c r="EU3" s="88"/>
-      <c r="EV3" s="88"/>
-      <c r="EW3" s="88"/>
-      <c r="EX3" s="88"/>
-      <c r="EY3" s="88"/>
-      <c r="EZ3" s="88"/>
-      <c r="FA3" s="88"/>
-      <c r="FB3" s="88"/>
-      <c r="FC3" s="88"/>
-      <c r="FD3" s="88"/>
-      <c r="FE3" s="90"/>
-      <c r="FF3" s="91"/>
-      <c r="FG3" s="91"/>
-      <c r="FH3" s="91"/>
-      <c r="FI3" s="91"/>
-      <c r="FJ3" s="91"/>
-      <c r="FK3" s="91"/>
-      <c r="FL3" s="91"/>
-      <c r="FM3" s="91"/>
-      <c r="FN3" s="91"/>
-      <c r="FO3" s="91"/>
-      <c r="FP3" s="93"/>
-      <c r="FQ3" s="95"/>
-      <c r="FR3" s="84"/>
-      <c r="FS3" s="85"/>
-      <c r="FT3" s="85"/>
-      <c r="FU3" s="85"/>
-      <c r="FV3" s="87" t="s">
+      <c r="DX3" s="30"/>
+      <c r="DY3" s="30"/>
+      <c r="DZ3" s="30"/>
+      <c r="EA3" s="30"/>
+      <c r="EB3" s="30"/>
+      <c r="EC3" s="30"/>
+      <c r="ED3" s="30"/>
+      <c r="EE3" s="24"/>
+      <c r="EF3" s="25"/>
+      <c r="EG3" s="18"/>
+      <c r="EH3" s="19"/>
+      <c r="EI3" s="19"/>
+      <c r="EJ3" s="19"/>
+      <c r="EK3" s="19"/>
+      <c r="EL3" s="19"/>
+      <c r="EM3" s="20"/>
+      <c r="EN3" s="62"/>
+      <c r="EO3" s="63"/>
+      <c r="EP3" s="63"/>
+      <c r="EQ3" s="63"/>
+      <c r="ER3" s="63"/>
+      <c r="ES3" s="63"/>
+      <c r="ET3" s="63"/>
+      <c r="EU3" s="63"/>
+      <c r="EV3" s="67"/>
+      <c r="EW3" s="68"/>
+      <c r="EX3" s="68"/>
+      <c r="EY3" s="68"/>
+      <c r="EZ3" s="68"/>
+      <c r="FA3" s="68"/>
+      <c r="FB3" s="68"/>
+      <c r="FC3" s="68"/>
+      <c r="FD3" s="68"/>
+      <c r="FE3" s="68"/>
+      <c r="FF3" s="68"/>
+      <c r="FG3" s="70"/>
+      <c r="FH3" s="71"/>
+      <c r="FI3" s="71"/>
+      <c r="FJ3" s="71"/>
+      <c r="FK3" s="71"/>
+      <c r="FL3" s="71"/>
+      <c r="FM3" s="71"/>
+      <c r="FN3" s="71"/>
+      <c r="FO3" s="71"/>
+      <c r="FP3" s="71"/>
+      <c r="FQ3" s="71"/>
+      <c r="FR3" s="73"/>
+      <c r="FS3" s="75"/>
+      <c r="FT3" s="64"/>
+      <c r="FU3" s="65"/>
+      <c r="FV3" s="65"/>
+      <c r="FW3" s="65"/>
+      <c r="FX3" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="FW3" s="88"/>
-      <c r="FX3" s="88"/>
-      <c r="FY3" s="88"/>
-      <c r="FZ3" s="88"/>
-      <c r="GA3" s="88"/>
-      <c r="GB3" s="88"/>
-      <c r="GC3" s="88"/>
-      <c r="GD3" s="88"/>
-      <c r="GE3" s="89"/>
-      <c r="GF3" s="90" t="s">
+      <c r="FY3" s="68"/>
+      <c r="FZ3" s="68"/>
+      <c r="GA3" s="68"/>
+      <c r="GB3" s="68"/>
+      <c r="GC3" s="68"/>
+      <c r="GD3" s="68"/>
+      <c r="GE3" s="68"/>
+      <c r="GF3" s="68"/>
+      <c r="GG3" s="69"/>
+      <c r="GH3" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="GG3" s="91"/>
-      <c r="GH3" s="91"/>
-      <c r="GI3" s="91"/>
-      <c r="GJ3" s="91"/>
-      <c r="GK3" s="91"/>
-      <c r="GL3" s="91"/>
-      <c r="GM3" s="91"/>
-      <c r="GN3" s="91"/>
-      <c r="GO3" s="91"/>
-      <c r="GP3" s="91"/>
-      <c r="GQ3" s="92"/>
-      <c r="GR3" s="93" t="s">
+      <c r="GI3" s="71"/>
+      <c r="GJ3" s="71"/>
+      <c r="GK3" s="71"/>
+      <c r="GL3" s="71"/>
+      <c r="GM3" s="71"/>
+      <c r="GN3" s="71"/>
+      <c r="GO3" s="71"/>
+      <c r="GP3" s="71"/>
+      <c r="GQ3" s="71"/>
+      <c r="GR3" s="71"/>
+      <c r="GS3" s="72"/>
+      <c r="GT3" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="GS3" s="95"/>
-      <c r="GT3" s="95"/>
-      <c r="GU3" s="95"/>
-      <c r="GV3" s="95"/>
-      <c r="GW3" s="95"/>
-      <c r="GX3" s="94"/>
-      <c r="GY3" s="98" t="s">
+      <c r="GU3" s="75"/>
+      <c r="GV3" s="75"/>
+      <c r="GW3" s="75"/>
+      <c r="GX3" s="75"/>
+      <c r="GY3" s="75"/>
+      <c r="GZ3" s="74"/>
+      <c r="HA3" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="GZ3" s="99"/>
-      <c r="HA3" s="99"/>
-      <c r="HB3" s="99"/>
-      <c r="HC3" s="100"/>
-      <c r="HD3" s="101" t="s">
+      <c r="HB3" s="79"/>
+      <c r="HC3" s="79"/>
+      <c r="HD3" s="79"/>
+      <c r="HE3" s="80"/>
+      <c r="HF3" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="HE3" s="102"/>
-      <c r="HF3" s="102"/>
-      <c r="HG3" s="102"/>
-      <c r="HH3" s="103"/>
-      <c r="HI3" s="105" t="s">
+      <c r="HG3" s="82"/>
+      <c r="HH3" s="82"/>
+      <c r="HI3" s="82"/>
+      <c r="HJ3" s="83"/>
+      <c r="HK3" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="HJ3" s="106"/>
-      <c r="HK3" s="106"/>
-      <c r="HL3" s="106"/>
-      <c r="HM3" s="106"/>
-      <c r="HN3" s="106"/>
-      <c r="HO3" s="106"/>
-      <c r="HP3" s="106"/>
-      <c r="HQ3" s="106"/>
-      <c r="HR3" s="106"/>
-      <c r="HS3" s="106"/>
-      <c r="HT3" s="106"/>
-      <c r="HU3" s="106"/>
-      <c r="HV3" s="106"/>
-      <c r="HW3" s="106"/>
-      <c r="HX3" s="107"/>
-      <c r="HY3" s="108" t="s">
+      <c r="HL3" s="86"/>
+      <c r="HM3" s="86"/>
+      <c r="HN3" s="86"/>
+      <c r="HO3" s="86"/>
+      <c r="HP3" s="86"/>
+      <c r="HQ3" s="86"/>
+      <c r="HR3" s="86"/>
+      <c r="HS3" s="86"/>
+      <c r="HT3" s="86"/>
+      <c r="HU3" s="86"/>
+      <c r="HV3" s="86"/>
+      <c r="HW3" s="86"/>
+      <c r="HX3" s="86"/>
+      <c r="HY3" s="86"/>
+      <c r="HZ3" s="87"/>
+      <c r="IA3" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="HZ3" s="109"/>
-      <c r="IA3" s="109"/>
-      <c r="IB3" s="109"/>
-      <c r="IC3" s="109"/>
-      <c r="ID3" s="109"/>
-      <c r="IE3" s="112"/>
-      <c r="IF3" s="113"/>
-      <c r="IG3" s="22"/>
-      <c r="IH3" s="22"/>
-      <c r="II3" s="22"/>
-      <c r="IJ3" s="22"/>
-      <c r="IK3" s="23"/>
-      <c r="IL3" s="23"/>
-      <c r="IM3" s="23"/>
-      <c r="IN3" s="23"/>
-      <c r="IO3" s="23"/>
-      <c r="IP3" s="23"/>
-      <c r="IQ3" s="23"/>
-      <c r="IR3" s="23"/>
+      <c r="IB3" s="89"/>
+      <c r="IC3" s="89"/>
+      <c r="ID3" s="89"/>
+      <c r="IE3" s="89"/>
+      <c r="IF3" s="89"/>
+      <c r="IG3" s="92"/>
+      <c r="IH3" s="93"/>
+      <c r="II3" s="2"/>
+      <c r="IJ3" s="2"/>
+      <c r="IK3" s="2"/>
+      <c r="IL3" s="2"/>
+      <c r="IM3" s="3"/>
+      <c r="IN3" s="3"/>
+      <c r="IO3" s="3"/>
+      <c r="IP3" s="3"/>
+      <c r="IQ3" s="3"/>
+      <c r="IR3" s="3"/>
+      <c r="IS3" s="3"/>
+      <c r="IT3" s="3"/>
     </row>
-    <row r="4" ht="23" customHeight="1" s="32" customFormat="1">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:254" s="12" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="41" t="s">
+      <c r="P4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="41" t="s">
+      <c r="S4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="41" t="s">
+      <c r="T4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="U4" s="41" t="s">
+      <c r="U4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="V4" s="41" t="s">
+      <c r="V4" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="W4" s="41" t="s">
+      <c r="W4" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="X4" s="41" t="s">
+      <c r="X4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="Y4" s="69" t="s">
+      <c r="Y4" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="Z4" s="69" t="s">
+      <c r="Z4" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AA4" s="69" t="s">
+      <c r="AA4" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="69" t="s">
+      <c r="AB4" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="AC4" s="69" t="s">
+      <c r="AC4" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="AD4" s="69" t="s">
+      <c r="AD4" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="AE4" s="69" t="s">
+      <c r="AE4" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="AF4" s="69" t="s">
+      <c r="AF4" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="AG4" s="69" t="s">
+      <c r="AG4" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AH4" s="69" t="s">
+      <c r="AH4" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="AI4" s="69" t="s">
+      <c r="AI4" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="AJ4" s="69" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="AK4" s="41" t="s">
+      <c r="AK4" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="AL4" s="41" t="s">
+      <c r="AL4" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="AM4" s="41" t="s">
+      <c r="AM4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="AN4" s="64" t="s">
+      <c r="AN4" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="AO4" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="AP4" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="AO4" s="64" t="s">
+      <c r="AQ4" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="AP4" s="64" t="s">
+      <c r="AR4" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AQ4" s="64" t="s">
+      <c r="AS4" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="AR4" s="64" t="s">
+      <c r="AT4" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="AS4" s="64" t="s">
+      <c r="AU4" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="AT4" s="64" t="s">
+      <c r="AV4" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="AU4" s="64" t="s">
+      <c r="AW4" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="AV4" s="64" t="s">
+      <c r="AX4" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="AW4" s="64" t="s">
+      <c r="AY4" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="AX4" s="64" t="s">
+      <c r="AZ4" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="AY4" s="64" t="s">
+      <c r="BA4" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="AZ4" s="64" t="s">
+      <c r="BB4" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="BA4" s="64" t="s">
+      <c r="BC4" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="BB4" s="64" t="s">
+      <c r="BD4" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="BC4" s="64" t="s">
+      <c r="BE4" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="BD4" s="64" t="s">
+      <c r="BF4" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="BE4" s="64" t="s">
+      <c r="BG4" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="BF4" s="64" t="s">
+      <c r="BH4" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="BG4" s="64" t="s">
+      <c r="BI4" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="BH4" s="64" t="s">
+      <c r="BJ4" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="BI4" s="64" t="s">
+      <c r="BK4" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="BJ4" s="64" t="s">
+      <c r="BL4" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="BK4" s="64" t="s">
+      <c r="BM4" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="BL4" s="64" t="s">
+      <c r="BN4" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="BM4" s="64" t="s">
+      <c r="BO4" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="BN4" s="64" t="s">
+      <c r="BP4" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="BO4" s="64" t="s">
+      <c r="BQ4" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="BP4" s="64" t="s">
+      <c r="BR4" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="BQ4" s="64" t="s">
+      <c r="BS4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="BR4" s="64" t="s">
+      <c r="BT4" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="BS4" s="58" t="s">
+      <c r="BU4" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="BT4" s="58" t="s">
+      <c r="BV4" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="BU4" s="58" t="s">
+      <c r="BW4" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="BV4" s="58" t="s">
+      <c r="BX4" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="BW4" s="58" t="s">
+      <c r="BY4" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="BX4" s="58" t="s">
+      <c r="BZ4" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="BY4" s="58" t="s">
+      <c r="CA4" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="BZ4" s="58" t="s">
+      <c r="CB4" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="CA4" s="58" t="s">
+      <c r="CC4" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="CB4" s="58" t="s">
+      <c r="CD4" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="CC4" s="58" t="s">
+      <c r="CE4" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="CD4" s="58" t="s">
+      <c r="CF4" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="CE4" s="58" t="s">
+      <c r="CG4" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="CF4" s="58" t="s">
+      <c r="CH4" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="CG4" s="58" t="s">
+      <c r="CI4" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="CH4" s="58" t="s">
+      <c r="CJ4" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="CI4" s="58" t="s">
+      <c r="CK4" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="CJ4" s="58" t="s">
+      <c r="CL4" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="CK4" s="58" t="s">
+      <c r="CM4" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="CL4" s="58" t="s">
+      <c r="CN4" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="CM4" s="58" t="s">
+      <c r="CO4" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="CN4" s="58" t="s">
+      <c r="CP4" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="CO4" s="58" t="s">
+      <c r="CQ4" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="CP4" s="58" t="s">
+      <c r="CR4" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="CQ4" s="58" t="s">
+      <c r="CS4" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="CR4" s="58" t="s">
+      <c r="CT4" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="CS4" s="58" t="s">
+      <c r="CU4" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="CT4" s="58" t="s">
+      <c r="CV4" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="CU4" s="58" t="s">
+      <c r="CW4" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="CV4" s="58" t="s">
+      <c r="CX4" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="CW4" s="58" t="s">
+      <c r="CY4" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="CX4" s="52" t="s">
+      <c r="CZ4" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="CY4" s="52" t="s">
+      <c r="DA4" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="CZ4" s="52" t="s">
+      <c r="DB4" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="DA4" s="52" t="s">
+      <c r="DC4" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="DB4" s="52" t="s">
+      <c r="DD4" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="DC4" s="52" t="s">
+      <c r="DE4" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="DD4" s="52" t="s">
+      <c r="DF4" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="DE4" s="52" t="s">
+      <c r="DG4" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="DF4" s="52" t="s">
+      <c r="DH4" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="DG4" s="52" t="s">
+      <c r="DI4" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="DH4" s="52" t="s">
+      <c r="DJ4" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="DI4" s="52" t="s">
+      <c r="DK4" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="DJ4" s="52" t="s">
+      <c r="DL4" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="DK4" s="52" t="s">
+      <c r="DM4" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="DL4" s="52" t="s">
+      <c r="DN4" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="DM4" s="52" t="s">
+      <c r="DO4" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="DN4" s="52" t="s">
+      <c r="DP4" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="DO4" s="52" t="s">
+      <c r="DQ4" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="DP4" s="52" t="s">
+      <c r="DR4" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="DQ4" s="52" t="s">
+      <c r="DS4" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="DR4" s="52" t="s">
+      <c r="DT4" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="DS4" s="52" t="s">
+      <c r="DU4" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="DT4" s="52" t="s">
+      <c r="DV4" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="DU4" s="52" t="s">
+      <c r="DW4" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="DV4" s="52" t="s">
+      <c r="DX4" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="DW4" s="52" t="s">
+      <c r="DY4" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="DX4" s="52" t="s">
+      <c r="DZ4" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="DY4" s="52" t="s">
+      <c r="EA4" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="DZ4" s="52" t="s">
+      <c r="EB4" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="EA4" s="52" t="s">
+      <c r="EC4" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="EB4" s="52" t="s">
+      <c r="ED4" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="EC4" s="46" t="s">
+      <c r="EE4" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="ED4" s="46" t="s">
+      <c r="EF4" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="EE4" s="41" t="s">
+      <c r="EG4" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="EF4" s="41" t="s">
+      <c r="EH4" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="EG4" s="41" t="s">
+      <c r="EI4" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="EH4" s="41" t="s">
+      <c r="EJ4" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="EI4" s="41" t="s">
+      <c r="EK4" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="EJ4" s="41" t="s">
+      <c r="EL4" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="EK4" s="41" t="s">
+      <c r="EM4" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="EL4" s="41" t="s">
+      <c r="EN4" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="EM4" s="41" t="s">
+      <c r="EO4" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="EN4" s="41" t="s">
+      <c r="EP4" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="EO4" s="41" t="s">
+      <c r="EQ4" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="EP4" s="41" t="s">
+      <c r="ER4" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="EQ4" s="41" t="s">
+      <c r="ES4" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="ER4" s="41" t="s">
+      <c r="ET4" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="ES4" s="86" t="s">
+      <c r="EU4" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="ET4" s="69" t="s">
+      <c r="EV4" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="EU4" s="69" t="s">
+      <c r="EW4" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="EV4" s="69" t="s">
+      <c r="EX4" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="EW4" s="69" t="s">
+      <c r="EY4" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="EX4" s="69" t="s">
+      <c r="EZ4" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="EY4" s="69" t="s">
+      <c r="FA4" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="EZ4" s="69" t="s">
+      <c r="FB4" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="FA4" s="69" t="s">
+      <c r="FC4" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="FB4" s="69" t="s">
+      <c r="FD4" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="FC4" s="69" t="s">
+      <c r="FE4" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="FD4" s="69" t="s">
+      <c r="FF4" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="FE4" s="64" t="s">
+      <c r="FG4" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="FF4" s="64" t="s">
+      <c r="FH4" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="FG4" s="64" t="s">
+      <c r="FI4" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="FH4" s="64" t="s">
+      <c r="FJ4" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="FI4" s="64" t="s">
+      <c r="FK4" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="FJ4" s="64" t="s">
+      <c r="FL4" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="FK4" s="64" t="s">
+      <c r="FM4" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="FL4" s="64" t="s">
+      <c r="FN4" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="FM4" s="64" t="s">
+      <c r="FO4" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="FN4" s="64" t="s">
+      <c r="FP4" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="FO4" s="64" t="s">
+      <c r="FQ4" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="FP4" s="58" t="s">
+      <c r="FR4" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="FQ4" s="58" t="s">
+      <c r="FS4" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="FR4" s="41" t="s">
+      <c r="FT4" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="FS4" s="41" t="s">
+      <c r="FU4" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="FT4" s="41" t="s">
+      <c r="FV4" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="FU4" s="41" t="s">
+      <c r="FW4" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="FV4" s="69" t="s">
+      <c r="FX4" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="FW4" s="69" t="s">
+      <c r="FY4" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="FX4" s="69" t="s">
+      <c r="FZ4" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="FY4" s="69" t="s">
+      <c r="GA4" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="FZ4" s="69" t="s">
+      <c r="GB4" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="GA4" s="69" t="s">
+      <c r="GC4" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="GB4" s="69" t="s">
+      <c r="GD4" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="GC4" s="69" t="s">
+      <c r="GE4" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="GD4" s="69" t="s">
+      <c r="GF4" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="GE4" s="69" t="s">
+      <c r="GG4" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="GF4" s="64" t="s">
+      <c r="GH4" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="GG4" s="64" t="s">
+      <c r="GI4" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="GH4" s="64" t="s">
+      <c r="GJ4" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="GI4" s="64" t="s">
+      <c r="GK4" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="GJ4" s="64" t="s">
+      <c r="GL4" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="GK4" s="64" t="s">
+      <c r="GM4" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="GL4" s="64" t="s">
+      <c r="GN4" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="GM4" s="64" t="s">
+      <c r="GO4" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="GN4" s="64" t="s">
+      <c r="GP4" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="GO4" s="64" t="s">
+      <c r="GQ4" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="GP4" s="64" t="s">
+      <c r="GR4" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="GQ4" s="64" t="s">
+      <c r="GS4" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="GR4" s="58" t="s">
+      <c r="GT4" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="GS4" s="58" t="s">
+      <c r="GU4" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="GT4" s="58" t="s">
+      <c r="GV4" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="GU4" s="58" t="s">
+      <c r="GW4" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="GV4" s="58" t="s">
+      <c r="GX4" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="GW4" s="58" t="s">
+      <c r="GY4" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="GX4" s="58" t="s">
+      <c r="GZ4" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="GY4" s="52" t="s">
+      <c r="HA4" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="GZ4" s="52" t="s">
+      <c r="HB4" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="HA4" s="52" t="s">
+      <c r="HC4" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="HB4" s="52" t="s">
+      <c r="HD4" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="HC4" s="52" t="s">
+      <c r="HE4" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="HD4" s="46" t="s">
+      <c r="HF4" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="HE4" s="46" t="s">
+      <c r="HG4" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="HF4" s="46" t="s">
+      <c r="HH4" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="HG4" s="46" t="s">
+      <c r="HI4" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="HH4" s="46" t="s">
+      <c r="HJ4" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="HI4" s="69" t="s">
+      <c r="HK4" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="HJ4" s="69" t="s">
+      <c r="HL4" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="HK4" s="69" t="s">
+      <c r="HM4" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="HL4" s="69" t="s">
+      <c r="HN4" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="HM4" s="69" t="s">
+      <c r="HO4" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="HN4" s="69" t="s">
+      <c r="HP4" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="HO4" s="69" t="s">
+      <c r="HQ4" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="HP4" s="69" t="s">
+      <c r="HR4" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="HQ4" s="69" t="s">
+      <c r="HS4" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="HR4" s="69" t="s">
+      <c r="HT4" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="HS4" s="69" t="s">
+      <c r="HU4" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="HT4" s="69" t="s">
+      <c r="HV4" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="HU4" s="69" t="s">
+      <c r="HW4" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="HV4" s="69" t="s">
+      <c r="HX4" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="HW4" s="69" t="s">
+      <c r="HY4" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="HX4" s="69" t="s">
+      <c r="HZ4" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="HY4" s="64" t="s">
+      <c r="IA4" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="HZ4" s="64" t="s">
+      <c r="IB4" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="IA4" s="64" t="s">
+      <c r="IC4" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="IB4" s="64" t="s">
+      <c r="ID4" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="IC4" s="64" t="s">
+      <c r="IE4" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="ID4" s="64" t="s">
+      <c r="IF4" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="IE4" s="104" t="s">
+      <c r="IG4" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="IF4" s="104" t="s">
+      <c r="IH4" s="84" t="s">
         <v>295</v>
       </c>
-      <c r="IG4" s="24" t="s">
+      <c r="II4" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="IH4" s="24" t="s">
+      <c r="IJ4" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="II4" s="24" t="s">
+      <c r="IK4" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="IJ4" s="24" t="s">
+      <c r="IL4" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="IK4" s="24" t="s">
+      <c r="IM4" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="IL4" s="24" t="s">
+      <c r="IN4" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="IM4" s="24" t="s">
+      <c r="IO4" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="IN4" s="24" t="s">
+      <c r="IP4" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="IO4" s="24" t="s">
+      <c r="IQ4" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="IP4" s="24" t="s">
+      <c r="IR4" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="IQ4" s="24" t="s">
+      <c r="IS4" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="IR4" s="24" t="s">
+      <c r="IT4" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="5" ht="72.65" customHeight="1" s="114" customFormat="1">
-      <c r="A5" s="115" t="s">
+    <row r="5" spans="1:254" s="94" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="95" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="95" t="s">
         <v>309</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="G5" s="115" t="s">
+      <c r="G5" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="H5" s="115" t="s">
+      <c r="H5" s="95" t="s">
         <v>313</v>
       </c>
-      <c r="I5" s="115" t="s">
+      <c r="I5" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="J5" s="115" t="s">
+      <c r="J5" s="95" t="s">
         <v>315</v>
       </c>
-      <c r="K5" s="115" t="s">
+      <c r="K5" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="L5" s="115" t="s">
+      <c r="L5" s="95" t="s">
         <v>317</v>
       </c>
-      <c r="M5" s="115" t="s">
+      <c r="M5" s="95" t="s">
         <v>318</v>
       </c>
-      <c r="N5" s="115" t="s">
+      <c r="N5" s="95" t="s">
         <v>319</v>
       </c>
-      <c r="O5" s="115" t="s">
+      <c r="O5" s="95" t="s">
         <v>320</v>
       </c>
-      <c r="P5" s="115" t="s">
+      <c r="P5" s="95" t="s">
         <v>321</v>
       </c>
-      <c r="Q5" s="115" t="s">
+      <c r="Q5" s="95" t="s">
         <v>322</v>
       </c>
-      <c r="R5" s="115" t="s">
+      <c r="R5" s="95" t="s">
         <v>323</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="S5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="V5" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="W5" s="26" t="s">
+      <c r="W5" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="X5" s="26" t="s">
+      <c r="X5" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="Y5" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="Z5" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AA5" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AB5" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="AC5" s="25" t="s">
+      <c r="AC5" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="AD5" s="25" t="s">
+      <c r="AD5" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="AE5" s="25" t="s">
+      <c r="AE5" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="AF5" s="25" t="s">
+      <c r="AF5" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AG5" s="25" t="s">
+      <c r="AG5" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="AH5" s="25" t="s">
+      <c r="AH5" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="AI5" s="26" t="s">
+      <c r="AI5" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AJ5" s="26" t="s">
+      <c r="AJ5" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AK5" s="25" t="s">
+      <c r="AK5" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="AL5" s="26" t="s">
+      <c r="AL5" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="AN5" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AM5" s="26" t="s">
+      <c r="AO5" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AN5" s="25" t="s">
+      <c r="AP5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AO5" s="26" t="s">
+      <c r="AQ5" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="AP5" s="26" t="s">
+      <c r="AR5" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="AQ5" s="25" t="s">
+      <c r="AS5" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="AR5" s="25" t="s">
+      <c r="AT5" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="AS5" s="25" t="s">
+      <c r="AU5" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="AT5" s="26" t="s">
+      <c r="AV5" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AU5" s="26" t="s">
+      <c r="AW5" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AV5" s="25" t="s">
+      <c r="AX5" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="AW5" s="26" t="s">
+      <c r="AY5" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="AX5" s="26" t="s">
+      <c r="AZ5" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="AY5" s="25" t="s">
+      <c r="BA5" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="AZ5" s="25" t="s">
+      <c r="BB5" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="BA5" s="115" t="s">
+      <c r="BC5" s="95" t="s">
         <v>350</v>
       </c>
-      <c r="BB5" s="115" t="s">
+      <c r="BD5" s="95" t="s">
         <v>351</v>
       </c>
-      <c r="BC5" s="25" t="s">
+      <c r="BE5" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="BD5" s="25" t="s">
+      <c r="BF5" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="BE5" s="25" t="s">
+      <c r="BG5" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="BF5" s="25" t="s">
+      <c r="BH5" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="BG5" s="25" t="s">
+      <c r="BI5" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="BH5" s="25" t="s">
+      <c r="BJ5" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="BI5" s="26" t="s">
+      <c r="BK5" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="BJ5" s="26" t="s">
+      <c r="BL5" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="BK5" s="25" t="s">
+      <c r="BM5" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="BL5" s="115" t="s">
+      <c r="BN5" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="BM5" s="25" t="s">
+      <c r="BO5" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="BN5" s="25" t="s">
+      <c r="BP5" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="BO5" s="25" t="s">
+      <c r="BQ5" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="BP5" s="115" t="s">
+      <c r="BR5" s="95" t="s">
         <v>363</v>
       </c>
-      <c r="BQ5" s="26" t="s">
+      <c r="BS5" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="BR5" s="26" t="s">
+      <c r="BT5" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="BS5" s="25" t="s">
+      <c r="BU5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="BT5" s="26" t="s">
+      <c r="BV5" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="BU5" s="26" t="s">
+      <c r="BW5" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="BV5" s="25" t="s">
+      <c r="BX5" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="BW5" s="25" t="s">
+      <c r="BY5" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="BX5" s="25" t="s">
+      <c r="BZ5" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="BY5" s="26" t="s">
+      <c r="CA5" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="BZ5" s="26" t="s">
+      <c r="CB5" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="CA5" s="25" t="s">
+      <c r="CC5" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="CB5" s="26" t="s">
+      <c r="CD5" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="CC5" s="26" t="s">
+      <c r="CE5" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="CD5" s="25" t="s">
+      <c r="CF5" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="CE5" s="25" t="s">
+      <c r="CG5" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="CF5" s="115" t="s">
+      <c r="CH5" s="95" t="s">
         <v>350</v>
       </c>
-      <c r="CG5" s="115" t="s">
+      <c r="CI5" s="95" t="s">
         <v>351</v>
       </c>
-      <c r="CH5" s="25" t="s">
+      <c r="CJ5" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="CI5" s="25" t="s">
+      <c r="CK5" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="CJ5" s="25" t="s">
+      <c r="CL5" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="CK5" s="25" t="s">
+      <c r="CM5" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="CL5" s="25" t="s">
+      <c r="CN5" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="CM5" s="25" t="s">
+      <c r="CO5" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="CN5" s="26" t="s">
+      <c r="CP5" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="CO5" s="26" t="s">
+      <c r="CQ5" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="CP5" s="25" t="s">
+      <c r="CR5" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="CQ5" s="115" t="s">
+      <c r="CS5" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="CR5" s="25" t="s">
+      <c r="CT5" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="CS5" s="25" t="s">
+      <c r="CU5" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="CT5" s="25" t="s">
+      <c r="CV5" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="CU5" s="115" t="s">
+      <c r="CW5" s="95" t="s">
         <v>363</v>
       </c>
-      <c r="CV5" s="26" t="s">
+      <c r="CX5" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="CW5" s="26" t="s">
+      <c r="CY5" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="CX5" s="25" t="s">
+      <c r="CZ5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="CY5" s="26" t="s">
+      <c r="DA5" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="CZ5" s="26" t="s">
+      <c r="DB5" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="DA5" s="25" t="s">
+      <c r="DC5" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="DB5" s="25" t="s">
+      <c r="DD5" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="DC5" s="25" t="s">
+      <c r="DE5" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="DD5" s="26" t="s">
+      <c r="DF5" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="DE5" s="26" t="s">
+      <c r="DG5" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="DF5" s="25" t="s">
+      <c r="DH5" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="DG5" s="26" t="s">
+      <c r="DI5" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="DH5" s="26" t="s">
+      <c r="DJ5" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="DI5" s="25" t="s">
+      <c r="DK5" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="DJ5" s="25" t="s">
+      <c r="DL5" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="DK5" s="115" t="s">
+      <c r="DM5" s="95" t="s">
         <v>350</v>
       </c>
-      <c r="DL5" s="115" t="s">
+      <c r="DN5" s="95" t="s">
         <v>351</v>
       </c>
-      <c r="DM5" s="25" t="s">
+      <c r="DO5" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="DN5" s="25" t="s">
+      <c r="DP5" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="DO5" s="25" t="s">
+      <c r="DQ5" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="DP5" s="25" t="s">
+      <c r="DR5" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="DQ5" s="25" t="s">
+      <c r="DS5" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="DR5" s="25" t="s">
+      <c r="DT5" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="DS5" s="26" t="s">
+      <c r="DU5" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="DT5" s="26" t="s">
+      <c r="DV5" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="DU5" s="25" t="s">
+      <c r="DW5" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="DV5" s="115" t="s">
+      <c r="DX5" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="DW5" s="25" t="s">
+      <c r="DY5" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="DX5" s="25" t="s">
+      <c r="DZ5" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="DY5" s="25" t="s">
+      <c r="EA5" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="DZ5" s="115" t="s">
+      <c r="EB5" s="95" t="s">
         <v>363</v>
       </c>
-      <c r="EA5" s="26" t="s">
+      <c r="EC5" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="EB5" s="26" t="s">
+      <c r="ED5" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="EC5" s="26" t="s">
+      <c r="EE5" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="ED5" s="26" t="s">
+      <c r="EF5" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="EE5" s="25" t="s">
+      <c r="EG5" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="EF5" s="25" t="s">
+      <c r="EH5" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="EG5" s="115" t="s">
+      <c r="EI5" s="95" t="s">
         <v>368</v>
       </c>
-      <c r="EH5" s="115" t="s">
+      <c r="EJ5" s="95" t="s">
         <v>369</v>
       </c>
-      <c r="EI5" s="115" t="s">
+      <c r="EK5" s="95" t="s">
         <v>370</v>
       </c>
-      <c r="EJ5" s="26" t="s">
+      <c r="EL5" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="EK5" s="26" t="s">
+      <c r="EM5" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="EL5" s="25" t="s">
+      <c r="EN5" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="EM5" s="25" t="s">
+      <c r="EO5" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="EN5" s="25" t="s">
+      <c r="EP5" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="EO5" s="25" t="s">
+      <c r="EQ5" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="EP5" s="25" t="s">
+      <c r="ER5" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="EQ5" s="25" t="s">
+      <c r="ES5" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="ER5" s="26" t="s">
+      <c r="ET5" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="ES5" s="26" t="s">
+      <c r="EU5" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="ET5" s="25" t="s">
+      <c r="EV5" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="EU5" s="25" t="s">
+      <c r="EW5" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="EV5" s="25" t="s">
+      <c r="EX5" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="EW5" s="115" t="s">
+      <c r="EY5" s="95" t="s">
         <v>382</v>
       </c>
-      <c r="EX5" s="115" t="s">
+      <c r="EZ5" s="95" t="s">
         <v>383</v>
       </c>
-      <c r="EY5" s="115" t="s">
+      <c r="FA5" s="95" t="s">
         <v>384</v>
       </c>
-      <c r="EZ5" s="115" t="s">
+      <c r="FB5" s="95" t="s">
         <v>385</v>
       </c>
-      <c r="FA5" s="115" t="s">
+      <c r="FC5" s="95" t="s">
         <v>386</v>
       </c>
-      <c r="FB5" s="115" t="s">
+      <c r="FD5" s="95" t="s">
         <v>387</v>
       </c>
-      <c r="FC5" s="26" t="s">
+      <c r="FE5" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="FD5" s="26" t="s">
+      <c r="FF5" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="FE5" s="25" t="s">
+      <c r="FG5" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="FF5" s="25" t="s">
+      <c r="FH5" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="FG5" s="25" t="s">
+      <c r="FI5" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="FH5" s="115" t="s">
+      <c r="FJ5" s="95" t="s">
         <v>392</v>
       </c>
-      <c r="FI5" s="115" t="s">
+      <c r="FK5" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="FJ5" s="115" t="s">
+      <c r="FL5" s="95" t="s">
         <v>394</v>
       </c>
-      <c r="FK5" s="25" t="s">
+      <c r="FM5" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="FL5" s="115" t="s">
+      <c r="FN5" s="95" t="s">
         <v>396</v>
       </c>
-      <c r="FM5" s="25" t="s">
+      <c r="FO5" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="FN5" s="26" t="s">
+      <c r="FP5" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="FO5" s="26" t="s">
+      <c r="FQ5" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="FP5" s="26" t="s">
+      <c r="FR5" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="FQ5" s="26" t="s">
+      <c r="FS5" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="FR5" s="25" t="s">
+      <c r="FT5" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="FS5" s="25" t="s">
+      <c r="FU5" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="FT5" s="26" t="s">
+      <c r="FV5" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="FU5" s="26" t="s">
+      <c r="FW5" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="FV5" s="25" t="s">
+      <c r="FX5" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="FW5" s="25" t="s">
+      <c r="FY5" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="FX5" s="25" t="s">
+      <c r="FZ5" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="FY5" s="25" t="s">
+      <c r="GA5" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="FZ5" s="25" t="s">
+      <c r="GB5" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="GA5" s="25" t="s">
+      <c r="GC5" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="GB5" s="25" t="s">
+      <c r="GD5" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="GC5" s="25" t="s">
+      <c r="GE5" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="GD5" s="26" t="s">
+      <c r="GF5" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="GE5" s="26" t="s">
+      <c r="GG5" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="GF5" s="25" t="s">
+      <c r="GH5" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="GG5" s="25" t="s">
+      <c r="GI5" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="GH5" s="25" t="s">
+      <c r="GJ5" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="GI5" s="25" t="s">
+      <c r="GK5" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="GJ5" s="115" t="s">
+      <c r="GL5" s="95" t="s">
         <v>394</v>
       </c>
-      <c r="GK5" s="115" t="s">
+      <c r="GM5" s="95" t="s">
         <v>396</v>
       </c>
-      <c r="GL5" s="25" t="s">
+      <c r="GN5" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="GM5" s="25" t="s">
+      <c r="GO5" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="GN5" s="25" t="s">
+      <c r="GP5" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="GO5" s="25" t="s">
+      <c r="GQ5" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="GP5" s="26" t="s">
+      <c r="GR5" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="GQ5" s="26" t="s">
+      <c r="GS5" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="GR5" s="115" t="s">
+      <c r="GT5" s="95" t="s">
         <v>418</v>
       </c>
-      <c r="GS5" s="25" t="s">
+      <c r="GU5" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="GT5" s="115" t="s">
+      <c r="GV5" s="95" t="s">
         <v>420</v>
       </c>
-      <c r="GU5" s="25" t="s">
+      <c r="GW5" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="GV5" s="25" t="s">
+      <c r="GX5" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="GW5" s="26" t="s">
+      <c r="GY5" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="GX5" s="26" t="s">
+      <c r="GZ5" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="GY5" s="25" t="s">
+      <c r="HA5" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="GZ5" s="25" t="s">
+      <c r="HB5" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="HA5" s="25" t="s">
+      <c r="HC5" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="HB5" s="26" t="s">
+      <c r="HD5" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="HC5" s="26" t="s">
+      <c r="HE5" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="HD5" s="25" t="s">
+      <c r="HF5" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="HE5" s="25" t="s">
+      <c r="HG5" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="HF5" s="25" t="s">
+      <c r="HH5" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="HG5" s="26" t="s">
+      <c r="HI5" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="HH5" s="26" t="s">
+      <c r="HJ5" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="HI5" s="115" t="s">
+      <c r="HK5" s="95" t="s">
         <v>429</v>
       </c>
-      <c r="HJ5" s="115" t="s">
+      <c r="HL5" s="95" t="s">
         <v>430</v>
       </c>
-      <c r="HK5" s="115" t="s">
+      <c r="HM5" s="95" t="s">
         <v>431</v>
       </c>
-      <c r="HL5" s="115" t="s">
+      <c r="HN5" s="95" t="s">
         <v>432</v>
       </c>
-      <c r="HM5" s="115" t="s">
+      <c r="HO5" s="95" t="s">
         <v>433</v>
       </c>
-      <c r="HN5" s="115" t="s">
+      <c r="HP5" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="HO5" s="115" t="s">
+      <c r="HQ5" s="95" t="s">
         <v>435</v>
       </c>
-      <c r="HP5" s="115" t="s">
+      <c r="HR5" s="95" t="s">
         <v>436</v>
       </c>
-      <c r="HQ5" s="115" t="s">
+      <c r="HS5" s="95" t="s">
         <v>437</v>
       </c>
-      <c r="HR5" s="115" t="s">
+      <c r="HT5" s="95" t="s">
         <v>438</v>
       </c>
-      <c r="HS5" s="115" t="s">
+      <c r="HU5" s="95" t="s">
         <v>439</v>
       </c>
-      <c r="HT5" s="115" t="s">
+      <c r="HV5" s="95" t="s">
         <v>440</v>
       </c>
-      <c r="HU5" s="115" t="s">
+      <c r="HW5" s="95" t="s">
         <v>441</v>
       </c>
-      <c r="HV5" s="115" t="s">
+      <c r="HX5" s="95" t="s">
         <v>442</v>
       </c>
-      <c r="HW5" s="26" t="s">
+      <c r="HY5" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="HX5" s="26" t="s">
+      <c r="HZ5" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="HY5" s="115" t="s">
+      <c r="IA5" s="95" t="s">
         <v>444</v>
       </c>
-      <c r="HZ5" s="115" t="s">
+      <c r="IB5" s="95" t="s">
         <v>445</v>
       </c>
-      <c r="IA5" s="115" t="s">
+      <c r="IC5" s="95" t="s">
         <v>446</v>
       </c>
-      <c r="IB5" s="115" t="s">
+      <c r="ID5" s="95" t="s">
         <v>447</v>
       </c>
-      <c r="IC5" s="26" t="s">
+      <c r="IE5" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="ID5" s="26" t="s">
+      <c r="IF5" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="IE5" s="26" t="s">
+      <c r="IG5" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="IF5" s="26" t="s">
+      <c r="IH5" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="IG5" s="25" t="s">
+      <c r="II5" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="IH5" s="25" t="s">
+      <c r="IJ5" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="II5" s="26" t="s">
+      <c r="IK5" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="IJ5" s="26" t="s">
+      <c r="IL5" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="IK5" s="25" t="s">
+      <c r="IM5" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="IL5" s="26" t="s">
+      <c r="IN5" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="IM5" s="26" t="s">
+      <c r="IO5" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="IN5" s="25" t="s">
+      <c r="IP5" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="IO5" s="26" t="s">
+      <c r="IQ5" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="IP5" s="26" t="s">
+      <c r="IR5" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="IQ5" s="26" t="s">
+      <c r="IS5" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="IR5" s="26" t="s">
+      <c r="IT5" s="6" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="6" ht="80.4" customHeight="1" s="27" customFormat="1">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:254" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="Q6" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="R6" s="29" t="s">
+      <c r="R6" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="S6" s="29" t="s">
+      <c r="S6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="T6" s="29" t="s">
+      <c r="T6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="U6" s="29" t="s">
+      <c r="U6" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="V6" s="29" t="s">
+      <c r="V6" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="W6" s="29" t="s">
+      <c r="W6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="X6" s="29" t="s">
+      <c r="X6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="Y6" s="29" t="s">
+      <c r="Y6" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="Z6" s="29" t="s">
+      <c r="Z6" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="AA6" s="29" t="s">
+      <c r="AA6" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="AB6" s="29" t="s">
+      <c r="AB6" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="AC6" s="29" t="s">
+      <c r="AC6" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="AD6" s="29" t="s">
+      <c r="AD6" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="AE6" s="29" t="s">
+      <c r="AE6" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="AF6" s="29" t="s">
+      <c r="AF6" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="AG6" s="29" t="s">
+      <c r="AG6" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="AH6" s="29" t="s">
+      <c r="AH6" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="AI6" s="29" t="s">
+      <c r="AI6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="AJ6" s="29" t="s">
+      <c r="AJ6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="AK6" s="29" t="s">
+      <c r="AK6" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="AL6" s="29" t="s">
+      <c r="AL6" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="AN6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="AM6" s="29" t="s">
+      <c r="AO6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="AN6" s="29" t="s">
+      <c r="AP6" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="AO6" s="29" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="AP6" s="29" t="s">
+      <c r="AR6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="AQ6" s="29" t="s">
+      <c r="AS6" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="AR6" s="29" t="s">
+      <c r="AT6" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="AS6" s="29" t="s">
+      <c r="AU6" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="AT6" s="29" t="s">
+      <c r="AV6" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="AU6" s="29" t="s">
+      <c r="AW6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="AV6" s="29" t="s">
+      <c r="AX6" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="AW6" s="29" t="s">
+      <c r="AY6" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="AX6" s="29" t="s">
+      <c r="AZ6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="AY6" s="29" t="s">
+      <c r="BA6" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="AZ6" s="29" t="s">
+      <c r="BB6" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="BA6" s="29" t="s">
+      <c r="BC6" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="BB6" s="29" t="s">
+      <c r="BD6" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="BC6" s="29" t="s">
+      <c r="BE6" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="BD6" s="29" t="s">
+      <c r="BF6" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="BE6" s="29" t="s">
+      <c r="BG6" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="BF6" s="29" t="s">
+      <c r="BH6" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="BG6" s="29" t="s">
+      <c r="BI6" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="BH6" s="29" t="s">
+      <c r="BJ6" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="BI6" s="29" t="s">
+      <c r="BK6" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="BJ6" s="29" t="s">
+      <c r="BL6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="BK6" s="29" t="s">
+      <c r="BM6" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="BL6" s="29" t="s">
+      <c r="BN6" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="BM6" s="29" t="s">
+      <c r="BO6" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="BN6" s="29" t="s">
+      <c r="BP6" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="BO6" s="29" t="s">
+      <c r="BQ6" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="BP6" s="29" t="s">
+      <c r="BR6" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="BQ6" s="29" t="s">
+      <c r="BS6" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="BR6" s="29" t="s">
+      <c r="BT6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="BS6" s="29" t="s">
+      <c r="BU6" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="BT6" s="29" t="s">
+      <c r="BV6" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="BU6" s="29" t="s">
+      <c r="BW6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="BV6" s="29" t="s">
+      <c r="BX6" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="BW6" s="29" t="s">
+      <c r="BY6" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="BX6" s="29" t="s">
+      <c r="BZ6" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="BY6" s="29" t="s">
+      <c r="CA6" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="BZ6" s="29" t="s">
+      <c r="CB6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="CA6" s="29" t="s">
+      <c r="CC6" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="CB6" s="29" t="s">
+      <c r="CD6" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="CC6" s="29" t="s">
+      <c r="CE6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="CD6" s="29" t="s">
+      <c r="CF6" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="CE6" s="29" t="s">
+      <c r="CG6" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="CF6" s="29" t="s">
+      <c r="CH6" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="CG6" s="29" t="s">
+      <c r="CI6" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="CH6" s="29" t="s">
+      <c r="CJ6" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="CI6" s="29" t="s">
+      <c r="CK6" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="CJ6" s="29" t="s">
+      <c r="CL6" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="CK6" s="29" t="s">
+      <c r="CM6" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="CL6" s="29" t="s">
+      <c r="CN6" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="CM6" s="29" t="s">
+      <c r="CO6" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="CN6" s="29" t="s">
+      <c r="CP6" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="CO6" s="29" t="s">
+      <c r="CQ6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="CP6" s="29" t="s">
+      <c r="CR6" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="CQ6" s="29" t="s">
+      <c r="CS6" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="CR6" s="29" t="s">
+      <c r="CT6" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="CS6" s="29" t="s">
+      <c r="CU6" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="CT6" s="29" t="s">
+      <c r="CV6" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="CU6" s="29" t="s">
+      <c r="CW6" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="CV6" s="29" t="s">
+      <c r="CX6" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="CW6" s="29" t="s">
+      <c r="CY6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="CX6" s="29" t="s">
+      <c r="CZ6" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="CY6" s="29" t="s">
+      <c r="DA6" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="CZ6" s="29" t="s">
+      <c r="DB6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="DA6" s="29" t="s">
+      <c r="DC6" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="DB6" s="29" t="s">
+      <c r="DD6" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="DC6" s="29" t="s">
+      <c r="DE6" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="DD6" s="29" t="s">
+      <c r="DF6" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="DE6" s="29" t="s">
+      <c r="DG6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="DF6" s="29" t="s">
+      <c r="DH6" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="DG6" s="29" t="s">
+      <c r="DI6" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="DH6" s="29" t="s">
+      <c r="DJ6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="DI6" s="29" t="s">
+      <c r="DK6" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="DJ6" s="29" t="s">
+      <c r="DL6" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="DK6" s="29" t="s">
+      <c r="DM6" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="DL6" s="29" t="s">
+      <c r="DN6" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="DM6" s="29" t="s">
+      <c r="DO6" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="DN6" s="29" t="s">
+      <c r="DP6" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="DO6" s="29" t="s">
+      <c r="DQ6" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="DP6" s="29" t="s">
+      <c r="DR6" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="DQ6" s="29" t="s">
+      <c r="DS6" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="DR6" s="29" t="s">
+      <c r="DT6" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="DS6" s="29" t="s">
+      <c r="DU6" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="DT6" s="29" t="s">
+      <c r="DV6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="DU6" s="29" t="s">
+      <c r="DW6" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="DV6" s="29" t="s">
+      <c r="DX6" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="DW6" s="29" t="s">
+      <c r="DY6" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="DX6" s="29" t="s">
+      <c r="DZ6" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="DY6" s="29" t="s">
+      <c r="EA6" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="DZ6" s="29" t="s">
+      <c r="EB6" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="EA6" s="29" t="s">
+      <c r="EC6" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="EB6" s="29" t="s">
+      <c r="ED6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="EC6" s="29" t="s">
+      <c r="EE6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="ED6" s="29" t="s">
+      <c r="EF6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="EE6" s="29" t="s">
+      <c r="EG6" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="EF6" s="29" t="s">
+      <c r="EH6" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="EG6" s="29" t="s">
+      <c r="EI6" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="EH6" s="29" t="s">
+      <c r="EJ6" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="EI6" s="29" t="s">
+      <c r="EK6" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="EJ6" s="29" t="s">
+      <c r="EL6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="EK6" s="29" t="s">
+      <c r="EM6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="EL6" s="29" t="s">
+      <c r="EN6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="EM6" s="29" t="s">
+      <c r="EO6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="EN6" s="29" t="s">
+      <c r="EP6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="EO6" s="29" t="s">
+      <c r="EQ6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="EP6" s="29" t="s">
+      <c r="ER6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="EQ6" s="29" t="s">
+      <c r="ES6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="ER6" s="29" t="s">
+      <c r="ET6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="ES6" s="29" t="s">
+      <c r="EU6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="ET6" s="29" t="s">
+      <c r="EV6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="EU6" s="29" t="s">
+      <c r="EW6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="EV6" s="29" t="s">
+      <c r="EX6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="EW6" s="29" t="s">
+      <c r="EY6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="EX6" s="29" t="s">
+      <c r="EZ6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="EY6" s="29" t="s">
+      <c r="FA6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="EZ6" s="29" t="s">
+      <c r="FB6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FA6" s="29" t="s">
+      <c r="FC6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FB6" s="29" t="s">
+      <c r="FD6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FC6" s="29" t="s">
+      <c r="FE6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="FD6" s="29" t="s">
+      <c r="FF6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="FE6" s="29" t="s">
+      <c r="FG6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FF6" s="29" t="s">
+      <c r="FH6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FG6" s="29" t="s">
+      <c r="FI6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FH6" s="29" t="s">
+      <c r="FJ6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FI6" s="29" t="s">
+      <c r="FK6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FJ6" s="29" t="s">
+      <c r="FL6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FK6" s="29" t="s">
+      <c r="FM6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FL6" s="29" t="s">
+      <c r="FN6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FM6" s="29" t="s">
+      <c r="FO6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FN6" s="29" t="s">
+      <c r="FP6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="FO6" s="29" t="s">
+      <c r="FQ6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="FP6" s="29" t="s">
+      <c r="FR6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="FQ6" s="29" t="s">
+      <c r="FS6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="FR6" s="29" t="s">
+      <c r="FT6" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="FS6" s="29" t="s">
+      <c r="FU6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FT6" s="29" t="s">
+      <c r="FV6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="FU6" s="29" t="s">
+      <c r="FW6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="FV6" s="29" t="s">
+      <c r="FX6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FW6" s="29" t="s">
+      <c r="FY6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FX6" s="29" t="s">
+      <c r="FZ6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FY6" s="29" t="s">
+      <c r="GA6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="FZ6" s="29" t="s">
+      <c r="GB6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GA6" s="29" t="s">
+      <c r="GC6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GB6" s="29" t="s">
+      <c r="GD6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GC6" s="29" t="s">
+      <c r="GE6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GD6" s="29" t="s">
+      <c r="GF6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="GE6" s="29" t="s">
+      <c r="GG6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="GF6" s="29" t="s">
+      <c r="GH6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GG6" s="29" t="s">
+      <c r="GI6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GH6" s="29" t="s">
+      <c r="GJ6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GI6" s="29" t="s">
+      <c r="GK6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GJ6" s="29" t="s">
+      <c r="GL6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GK6" s="29" t="s">
+      <c r="GM6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GL6" s="29" t="s">
+      <c r="GN6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GM6" s="29" t="s">
+      <c r="GO6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GN6" s="29" t="s">
+      <c r="GP6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GO6" s="29" t="s">
+      <c r="GQ6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GP6" s="29" t="s">
+      <c r="GR6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="GQ6" s="29" t="s">
+      <c r="GS6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="GR6" s="29" t="s">
+      <c r="GT6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GS6" s="29" t="s">
+      <c r="GU6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GT6" s="29" t="s">
+      <c r="GV6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GU6" s="29" t="s">
+      <c r="GW6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GV6" s="29" t="s">
+      <c r="GX6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GW6" s="29" t="s">
+      <c r="GY6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="GX6" s="29" t="s">
+      <c r="GZ6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="GY6" s="29" t="s">
+      <c r="HA6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="GZ6" s="29" t="s">
+      <c r="HB6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HA6" s="29" t="s">
+      <c r="HC6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HB6" s="29" t="s">
+      <c r="HD6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="HC6" s="29" t="s">
+      <c r="HE6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="HD6" s="29" t="s">
+      <c r="HF6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HE6" s="29" t="s">
+      <c r="HG6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HF6" s="29" t="s">
+      <c r="HH6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HG6" s="29" t="s">
+      <c r="HI6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="HH6" s="29" t="s">
+      <c r="HJ6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="HI6" s="29" t="s">
+      <c r="HK6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HJ6" s="29" t="s">
+      <c r="HL6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HK6" s="29" t="s">
+      <c r="HM6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HL6" s="29" t="s">
+      <c r="HN6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HM6" s="29" t="s">
+      <c r="HO6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HN6" s="29" t="s">
+      <c r="HP6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HO6" s="29" t="s">
+      <c r="HQ6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HP6" s="29" t="s">
+      <c r="HR6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HQ6" s="29" t="s">
+      <c r="HS6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HR6" s="29" t="s">
+      <c r="HT6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HS6" s="29" t="s">
+      <c r="HU6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HT6" s="29" t="s">
+      <c r="HV6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HU6" s="29" t="s">
+      <c r="HW6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HV6" s="29" t="s">
+      <c r="HX6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HW6" s="29" t="s">
+      <c r="HY6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="HX6" s="29" t="s">
+      <c r="HZ6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="HY6" s="29" t="s">
+      <c r="IA6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="HZ6" s="29" t="s">
+      <c r="IB6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="IA6" s="29" t="s">
+      <c r="IC6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="IB6" s="29" t="s">
+      <c r="ID6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="IC6" s="29" t="s">
+      <c r="IE6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="ID6" s="29" t="s">
+      <c r="IF6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="IE6" s="29" t="s">
+      <c r="IG6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="IF6" s="29" t="s">
+      <c r="IH6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="IG6" s="29" t="s">
+      <c r="II6" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="IH6" s="29" t="s">
+      <c r="IJ6" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="II6" s="29" t="s">
+      <c r="IK6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="IJ6" s="29" t="s">
+      <c r="IL6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="IK6" s="29" t="s">
+      <c r="IM6" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="IL6" s="29" t="s">
+      <c r="IN6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="IM6" s="29" t="s">
+      <c r="IO6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="IN6" s="29" t="s">
+      <c r="IP6" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="IO6" s="29" t="s">
+      <c r="IQ6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="IP6" s="29" t="s">
+      <c r="IR6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="IQ6" s="29" t="s">
+      <c r="IS6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="IR6" s="29" t="s">
+      <c r="IT6" s="9" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="7" ht="80.4" customHeight="1" s="27" customFormat="1">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:254" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="F7" s="29" t="s">
+      <c r="E7" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="I7" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="J7" s="29" t="s">
+      <c r="I7" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="N7" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="P7" s="29" t="s">
+      <c r="N7" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="R7" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="T7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="U7" s="30" t="s">
+      <c r="S7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="V7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="W7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="X7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="Y7" s="30" t="s">
+      <c r="V7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y7" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="Z7" s="29" t="s">
+      <c r="Z7" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="AA7" s="30" t="s">
+      <c r="AA7" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="AB7" s="29" t="s">
+      <c r="AB7" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="AC7" s="30" t="s">
+      <c r="AC7" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="AD7" s="29" t="s">
+      <c r="AD7" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="AE7" s="30" t="s">
+      <c r="AE7" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="AF7" s="30" t="s">
+      <c r="AF7" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="AG7" s="29" t="s">
+      <c r="AG7" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="AH7" s="29" t="s">
+      <c r="AH7" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="AI7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="AJ7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="AK7" s="29" t="s">
+      <c r="AI7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AK7" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="AL7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="AM7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="AN7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="AO7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="AP7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="AQ7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="AR7" s="30" t="s">
+      <c r="AL7" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="AS7" s="30" t="s">
+      <c r="AM7" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="AT7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="AU7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="AV7" s="30" t="s">
+      <c r="AN7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AO7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AP7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AQ7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="AU7" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="AV7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AW7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AX7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="AW7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="AX7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="AY7" s="30" t="s">
+      <c r="AY7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="BA7" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="AZ7" s="30" t="s">
+      <c r="BB7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="BA7" s="30" t="s">
+      <c r="BC7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="BB7" s="30" t="s">
+      <c r="BD7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="BC7" s="30" t="s">
+      <c r="BE7" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="BD7" s="30" t="s">
+      <c r="BF7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="BE7" s="30" t="s">
+      <c r="BG7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="BF7" s="30" t="s">
+      <c r="BH7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="BG7" s="30" t="s">
+      <c r="BI7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="BH7" s="30" t="s">
+      <c r="BJ7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="BI7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="BJ7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="BK7" s="30" t="s">
+      <c r="BK7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="BL7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="BM7" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="BL7" s="30" t="s">
+      <c r="BN7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="BM7" s="30" t="s">
+      <c r="BO7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="BN7" s="30" t="s">
+      <c r="BP7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="BO7" s="30" t="s">
+      <c r="BQ7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="BP7" s="30" t="s">
+      <c r="BR7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="BQ7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="BR7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="BS7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="BT7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="BU7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="BV7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="BW7" s="30" t="s">
+      <c r="BS7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="BT7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="BU7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="BV7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="BW7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="BX7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="BY7" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="BX7" s="30" t="s">
+      <c r="BZ7" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="BY7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="BZ7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="CA7" s="30" t="s">
+      <c r="CA7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="CB7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="CC7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="CB7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="CC7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="CD7" s="30" t="s">
+      <c r="CD7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="CE7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="CF7" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="CE7" s="30" t="s">
+      <c r="CG7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="CF7" s="30" t="s">
+      <c r="CH7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="CG7" s="30" t="s">
+      <c r="CI7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="CH7" s="30" t="s">
+      <c r="CJ7" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="CI7" s="30" t="s">
+      <c r="CK7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="CJ7" s="30" t="s">
+      <c r="CL7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="CK7" s="30" t="s">
+      <c r="CM7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="CL7" s="30" t="s">
+      <c r="CN7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="CM7" s="30" t="s">
+      <c r="CO7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="CN7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="CO7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="CP7" s="30" t="s">
+      <c r="CP7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="CQ7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="CR7" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="CQ7" s="30" t="s">
+      <c r="CS7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="CR7" s="30" t="s">
+      <c r="CT7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="CS7" s="30" t="s">
+      <c r="CU7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="CT7" s="30" t="s">
+      <c r="CV7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="CU7" s="30" t="s">
+      <c r="CW7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="CV7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="CW7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="CX7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="CY7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="CZ7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="DA7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="DB7" s="30" t="s">
+      <c r="CX7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="CY7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="CZ7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="DA7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="DB7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="DC7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="DD7" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="DC7" s="30" t="s">
+      <c r="DE7" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="DD7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="DE7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="DF7" s="30" t="s">
+      <c r="DF7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="DG7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="DH7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="DG7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="DH7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="DI7" s="30" t="s">
+      <c r="DI7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="DJ7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="DK7" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="DJ7" s="30" t="s">
+      <c r="DL7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="DK7" s="30" t="s">
+      <c r="DM7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="DL7" s="30" t="s">
+      <c r="DN7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="DM7" s="30" t="s">
+      <c r="DO7" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="DN7" s="30" t="s">
+      <c r="DP7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="DO7" s="30" t="s">
+      <c r="DQ7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="DP7" s="30" t="s">
+      <c r="DR7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="DQ7" s="30" t="s">
+      <c r="DS7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="DR7" s="30" t="s">
+      <c r="DT7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="DS7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="DT7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="DU7" s="30" t="s">
+      <c r="DU7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="DV7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="DW7" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="DV7" s="30" t="s">
+      <c r="DX7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="DW7" s="30" t="s">
+      <c r="DY7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="DX7" s="30" t="s">
+      <c r="DZ7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="DY7" s="30" t="s">
+      <c r="EA7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="DZ7" s="30" t="s">
+      <c r="EB7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="EA7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="EB7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="EC7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="ED7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="EE7" s="30" t="s">
+      <c r="EC7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="ED7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="EE7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="EF7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="EG7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="EF7" s="30" t="s">
+      <c r="EH7" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="EG7" s="30" t="s">
+      <c r="EI7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="EH7" s="30" t="s">
+      <c r="EJ7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="EI7" s="30" t="s">
+      <c r="EK7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="EJ7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="EK7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="EL7" s="34" t="s">
-        <v>529</v>
-      </c>
-      <c r="EM7" s="34" t="s">
-        <v>529</v>
-      </c>
-      <c r="EN7" s="34" t="s">
-        <v>529</v>
-      </c>
-      <c r="EO7" s="34" t="s">
-        <v>529</v>
-      </c>
-      <c r="EP7" s="34"/>
-      <c r="EQ7" s="34"/>
-      <c r="ER7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="ES7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="ET7" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="EU7" s="29"/>
-      <c r="EV7" s="29"/>
-      <c r="EW7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="EX7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="EY7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="EZ7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="FA7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="FB7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="FC7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="FD7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="FE7" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="FF7" s="30"/>
-      <c r="FG7" s="30"/>
-      <c r="FH7" s="30"/>
-      <c r="FI7" s="30"/>
-      <c r="FJ7" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="FK7" s="29"/>
-      <c r="FL7" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="FM7" s="29"/>
-      <c r="FN7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="FO7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="FP7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="FQ7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="FR7" s="29" t="s">
+      <c r="EL7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="EM7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="EN7" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="EO7" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="EP7" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="EQ7" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="ER7" s="14"/>
+      <c r="ES7" s="14"/>
+      <c r="ET7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="EU7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="EV7" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="EW7" s="9"/>
+      <c r="EX7" s="9"/>
+      <c r="EY7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="EZ7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="FA7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="FB7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="FC7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="FD7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="FE7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="FF7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="FG7" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="FH7" s="10"/>
+      <c r="FI7" s="10"/>
+      <c r="FJ7" s="10"/>
+      <c r="FK7" s="10"/>
+      <c r="FL7" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="FM7" s="9"/>
+      <c r="FN7" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="FO7" s="9"/>
+      <c r="FP7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="FQ7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="FR7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="FS7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="FT7" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="FS7" s="34" t="s">
+      <c r="FU7" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="FT7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="FU7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="FV7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="FW7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="FX7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="FY7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="FZ7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="GA7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="GB7" s="33"/>
-      <c r="GC7" s="34"/>
-      <c r="GD7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="GE7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="GF7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="GG7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="GH7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="GI7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="GJ7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="GK7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="GL7" s="33"/>
-      <c r="GM7" s="33"/>
-      <c r="GN7" s="33"/>
-      <c r="GO7" s="33"/>
-      <c r="GP7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="GQ7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="GR7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="GS7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="GT7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="GU7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="GV7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="GW7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="GX7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="GY7" s="30"/>
-      <c r="GZ7" s="30"/>
-      <c r="HA7" s="30"/>
-      <c r="HB7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="HC7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="HD7" s="30"/>
-      <c r="HE7" s="30"/>
-      <c r="HF7" s="30"/>
-      <c r="HG7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="HH7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="HI7" s="30"/>
-      <c r="HJ7" s="30"/>
-      <c r="HK7" s="30"/>
-      <c r="HL7" s="30"/>
-      <c r="HM7" s="34" t="s">
+      <c r="FV7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="FW7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="FX7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="FY7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="FZ7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GA7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GB7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GC7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GD7" s="13"/>
+      <c r="GE7" s="14"/>
+      <c r="GF7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="GG7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="GH7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GI7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GJ7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GK7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GL7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GM7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GN7" s="13"/>
+      <c r="GO7" s="13"/>
+      <c r="GP7" s="13"/>
+      <c r="GQ7" s="13"/>
+      <c r="GR7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="GS7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="GT7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GU7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GV7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GW7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GX7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="GY7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="GZ7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="HA7" s="10"/>
+      <c r="HB7" s="10"/>
+      <c r="HC7" s="10"/>
+      <c r="HD7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="HE7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="HF7" s="10"/>
+      <c r="HG7" s="10"/>
+      <c r="HH7" s="10"/>
+      <c r="HI7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="HJ7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="HK7" s="10"/>
+      <c r="HL7" s="10"/>
+      <c r="HM7" s="10"/>
+      <c r="HN7" s="10"/>
+      <c r="HO7" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="HN7" s="30"/>
-      <c r="HO7" s="30"/>
-      <c r="HP7" s="30"/>
-      <c r="HQ7" s="30"/>
-      <c r="HR7" s="30"/>
-      <c r="HS7" s="30"/>
-      <c r="HT7" s="30"/>
-      <c r="HU7" s="30"/>
-      <c r="HV7" s="30"/>
-      <c r="HW7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="HX7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="HY7" s="30"/>
-      <c r="HZ7" s="30"/>
-      <c r="IA7" s="30"/>
-      <c r="IB7" s="30"/>
-      <c r="IC7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="ID7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="IE7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="IF7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="IG7" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="IH7" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="II7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="IJ7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="IK7" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="IL7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="IM7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="IN7" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="IO7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="IP7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="IQ7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="IR7" s="30" t="s">
+      <c r="HP7" s="10"/>
+      <c r="HQ7" s="10"/>
+      <c r="HR7" s="10"/>
+      <c r="HS7" s="10"/>
+      <c r="HT7" s="10"/>
+      <c r="HU7" s="10"/>
+      <c r="HV7" s="10"/>
+      <c r="HW7" s="10"/>
+      <c r="HX7" s="10"/>
+      <c r="HY7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="HZ7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="IA7" s="10"/>
+      <c r="IB7" s="10"/>
+      <c r="IC7" s="10"/>
+      <c r="ID7" s="10"/>
+      <c r="IE7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="IF7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="IG7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="IH7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="II7" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="IJ7" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="IK7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="IL7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="IM7" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="IN7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="IO7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="IP7" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="IQ7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="IR7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="IS7" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="IT7" s="10" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="8" ht="80.4" customHeight="1" s="27" customFormat="1">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:254" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="Q8" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="R8" s="29" t="s">
+      <c r="R8" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="T8" s="29" t="s">
+      <c r="T8" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="U8" s="30" t="s">
+      <c r="U8" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="V8" s="30" t="s">
+      <c r="V8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="W8" s="30" t="s">
+      <c r="W8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="X8" s="29" t="s">
+      <c r="X8" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="Y8" s="30" t="s">
+      <c r="Y8" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="Z8" s="30" t="s">
+      <c r="Z8" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="AA8" s="30" t="s">
+      <c r="AA8" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="AB8" s="30" t="s">
+      <c r="AB8" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="AC8" s="30" t="s">
+      <c r="AC8" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="AD8" s="30" t="s">
+      <c r="AD8" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="AE8" s="30" t="s">
+      <c r="AE8" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="AF8" s="30" t="s">
+      <c r="AF8" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="AG8" s="30" t="s">
+      <c r="AG8" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="AH8" s="30" t="s">
+      <c r="AH8" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="AI8" s="30" t="s">
+      <c r="AI8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="AJ8" s="29" t="s">
+      <c r="AJ8" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="AK8" s="29" t="s">
+      <c r="AK8" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="AL8" s="30" t="s">
+      <c r="AL8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="AM8" s="29" t="s">
+      <c r="AM8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="AN8" s="30" t="s">
+      <c r="AN8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="AO8" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="AP8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AO8" s="30" t="s">
+      <c r="AQ8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AP8" s="30" t="s">
+      <c r="AR8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AQ8" s="30" t="s">
+      <c r="AS8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AR8" s="30" t="s">
+      <c r="AT8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="AS8" s="30" t="s">
+      <c r="AU8" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="AT8" s="30" t="s">
+      <c r="AV8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AU8" s="30" t="s">
+      <c r="AW8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AV8" s="30" t="s">
+      <c r="AX8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="AW8" s="30" t="s">
+      <c r="AY8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AX8" s="30" t="s">
+      <c r="AZ8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AY8" s="30" t="s">
+      <c r="BA8" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="AZ8" s="30" t="s">
+      <c r="BB8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="BA8" s="30" t="s">
+      <c r="BC8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="BB8" s="30" t="s">
+      <c r="BD8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="BC8" s="30" t="s">
+      <c r="BE8" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="BD8" s="30" t="s">
+      <c r="BF8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="BE8" s="30" t="s">
+      <c r="BG8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="BF8" s="30" t="s">
+      <c r="BH8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="BG8" s="30" t="s">
+      <c r="BI8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="BH8" s="30" t="s">
+      <c r="BJ8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="BI8" s="30" t="s">
+      <c r="BK8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="BJ8" s="30" t="s">
+      <c r="BL8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="BK8" s="30" t="s">
+      <c r="BM8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="BL8" s="30" t="s">
+      <c r="BN8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="BM8" s="30" t="s">
+      <c r="BO8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="BN8" s="30" t="s">
+      <c r="BP8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="BO8" s="30" t="s">
+      <c r="BQ8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="BP8" s="30" t="s">
+      <c r="BR8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="BQ8" s="30" t="s">
+      <c r="BS8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="BR8" s="30" t="s">
+      <c r="BT8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="BS8" s="30" t="s">
+      <c r="BU8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="BT8" s="30" t="s">
+      <c r="BV8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="BU8" s="30" t="s">
+      <c r="BW8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="BV8" s="30" t="s">
+      <c r="BX8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="BW8" s="30" t="s">
+      <c r="BY8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="BX8" s="30" t="s">
+      <c r="BZ8" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="BY8" s="30" t="s">
+      <c r="CA8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="BZ8" s="30" t="s">
+      <c r="CB8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="CA8" s="30" t="s">
+      <c r="CC8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="CB8" s="30" t="s">
+      <c r="CD8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="CC8" s="30" t="s">
+      <c r="CE8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="CD8" s="30" t="s">
+      <c r="CF8" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="CE8" s="30" t="s">
+      <c r="CG8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="CF8" s="30" t="s">
+      <c r="CH8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="CG8" s="30" t="s">
+      <c r="CI8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="CH8" s="30" t="s">
+      <c r="CJ8" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="CI8" s="30" t="s">
+      <c r="CK8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="CJ8" s="30" t="s">
+      <c r="CL8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="CK8" s="30" t="s">
+      <c r="CM8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="CL8" s="30" t="s">
+      <c r="CN8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="CM8" s="30" t="s">
+      <c r="CO8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="CN8" s="30" t="s">
+      <c r="CP8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="CO8" s="30" t="s">
+      <c r="CQ8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="CP8" s="30" t="s">
+      <c r="CR8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="CQ8" s="30" t="s">
+      <c r="CS8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="CR8" s="30" t="s">
+      <c r="CT8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="CS8" s="30" t="s">
+      <c r="CU8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="CT8" s="30" t="s">
+      <c r="CV8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="CU8" s="30" t="s">
+      <c r="CW8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="CV8" s="30" t="s">
+      <c r="CX8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="CW8" s="30" t="s">
+      <c r="CY8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="CX8" s="30" t="s">
+      <c r="CZ8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="CY8" s="30" t="s">
+      <c r="DA8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="CZ8" s="30" t="s">
+      <c r="DB8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="DA8" s="30" t="s">
+      <c r="DC8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="DB8" s="30" t="s">
+      <c r="DD8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="DC8" s="30" t="s">
+      <c r="DE8" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="DD8" s="30" t="s">
+      <c r="DF8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="DE8" s="30" t="s">
+      <c r="DG8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="DF8" s="30" t="s">
+      <c r="DH8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="DG8" s="30" t="s">
+      <c r="DI8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="DH8" s="30" t="s">
+      <c r="DJ8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="DI8" s="30" t="s">
+      <c r="DK8" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="DJ8" s="30" t="s">
+      <c r="DL8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="DK8" s="30" t="s">
+      <c r="DM8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="DL8" s="30" t="s">
+      <c r="DN8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="DM8" s="30" t="s">
+      <c r="DO8" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="DN8" s="30" t="s">
+      <c r="DP8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="DO8" s="30" t="s">
+      <c r="DQ8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="DP8" s="30" t="s">
+      <c r="DR8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="DQ8" s="30" t="s">
+      <c r="DS8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="DR8" s="30" t="s">
+      <c r="DT8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="DS8" s="30" t="s">
+      <c r="DU8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="DT8" s="30" t="s">
+      <c r="DV8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="DU8" s="30" t="s">
+      <c r="DW8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="DV8" s="30" t="s">
+      <c r="DX8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="DW8" s="30" t="s">
+      <c r="DY8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="DX8" s="30" t="s">
+      <c r="DZ8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="DY8" s="30" t="s">
+      <c r="EA8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="DZ8" s="30" t="s">
+      <c r="EB8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="EA8" s="30" t="s">
+      <c r="EC8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="EB8" s="30" t="s">
+      <c r="ED8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="EC8" s="30" t="s">
+      <c r="EE8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="ED8" s="30" t="s">
+      <c r="EF8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="EE8" s="30" t="s">
+      <c r="EG8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="EF8" s="30" t="s">
+      <c r="EH8" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="EG8" s="30" t="s">
+      <c r="EI8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="EH8" s="30" t="s">
+      <c r="EJ8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="EI8" s="30" t="s">
+      <c r="EK8" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="EJ8" s="30" t="s">
+      <c r="EL8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="EK8" s="30" t="s">
+      <c r="EM8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="EL8" s="34" t="s">
+      <c r="EN8" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="EM8" s="34" t="s">
+      <c r="EO8" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="EN8" s="34" t="s">
+      <c r="EP8" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="EO8" s="34" t="s">
+      <c r="EQ8" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="EP8" s="34"/>
-      <c r="EQ8" s="34"/>
-      <c r="ER8" s="30" t="s">
+      <c r="ER8" s="14"/>
+      <c r="ES8" s="14"/>
+      <c r="ET8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="ES8" s="30" t="s">
+      <c r="EU8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="ET8" s="29" t="s">
+      <c r="EV8" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="EU8" s="29"/>
-      <c r="EV8" s="29"/>
-      <c r="EW8" s="33" t="s">
+      <c r="EW8" s="9"/>
+      <c r="EX8" s="9"/>
+      <c r="EY8" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="EX8" s="33" t="s">
+      <c r="EZ8" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="EY8" s="33" t="s">
+      <c r="FA8" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="EZ8" s="33" t="s">
+      <c r="FB8" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="FA8" s="33" t="s">
+      <c r="FC8" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="FB8" s="33" t="s">
+      <c r="FD8" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="FC8" s="30" t="s">
+      <c r="FE8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="FD8" s="30" t="s">
+      <c r="FF8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="FE8" s="29" t="s">
+      <c r="FG8" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="FF8" s="30"/>
-      <c r="FG8" s="30"/>
-      <c r="FH8" s="30"/>
-      <c r="FI8" s="30"/>
-      <c r="FJ8" s="29" t="s">
+      <c r="FH8" s="10"/>
+      <c r="FI8" s="10"/>
+      <c r="FJ8" s="10"/>
+      <c r="FK8" s="10"/>
+      <c r="FL8" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="FK8" s="29"/>
-      <c r="FL8" s="29" t="s">
+      <c r="FM8" s="9"/>
+      <c r="FN8" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="FM8" s="29"/>
-      <c r="FN8" s="30" t="s">
+      <c r="FO8" s="9"/>
+      <c r="FP8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="FO8" s="30" t="s">
+      <c r="FQ8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="FP8" s="30" t="s">
+      <c r="FR8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="FQ8" s="30" t="s">
+      <c r="FS8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="FR8" s="29" t="s">
+      <c r="FT8" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="FS8" s="33" t="s">
+      <c r="FU8" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="FT8" s="30" t="s">
+      <c r="FV8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="FU8" s="30" t="s">
+      <c r="FW8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="FV8" s="33" t="s">
+      <c r="FX8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="FW8" s="33" t="s">
+      <c r="FY8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="FX8" s="33" t="s">
+      <c r="FZ8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="FY8" s="33" t="s">
+      <c r="GA8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="FZ8" s="33" t="s">
+      <c r="GB8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GA8" s="33" t="s">
+      <c r="GC8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GB8" s="33"/>
-      <c r="GC8" s="33"/>
-      <c r="GD8" s="33" t="s">
+      <c r="GD8" s="13"/>
+      <c r="GE8" s="13"/>
+      <c r="GF8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GE8" s="33" t="s">
+      <c r="GG8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GF8" s="33" t="s">
+      <c r="GH8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GG8" s="33" t="s">
+      <c r="GI8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GH8" s="33" t="s">
+      <c r="GJ8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GI8" s="33" t="s">
+      <c r="GK8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GJ8" s="33" t="s">
+      <c r="GL8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GK8" s="33" t="s">
+      <c r="GM8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GL8" s="33" t="s">
+      <c r="GN8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GM8" s="33"/>
-      <c r="GN8" s="33"/>
-      <c r="GO8" s="33"/>
-      <c r="GP8" s="33" t="s">
+      <c r="GO8" s="13"/>
+      <c r="GP8" s="13"/>
+      <c r="GQ8" s="13"/>
+      <c r="GR8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GQ8" s="33" t="s">
+      <c r="GS8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GR8" s="33" t="s">
+      <c r="GT8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GS8" s="33" t="s">
+      <c r="GU8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GT8" s="33" t="s">
+      <c r="GV8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GU8" s="33" t="s">
+      <c r="GW8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GV8" s="33" t="s">
+      <c r="GX8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GW8" s="33" t="s">
+      <c r="GY8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GX8" s="33" t="s">
+      <c r="GZ8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="GY8" s="33" t="s">
+      <c r="HA8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="GZ8" s="33" t="s">
+      <c r="HB8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="HA8" s="33" t="s">
+      <c r="HC8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="HB8" s="33" t="s">
+      <c r="HD8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="HC8" s="33" t="s">
+      <c r="HE8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="HD8" s="33" t="s">
+      <c r="HF8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="HE8" s="33" t="s">
+      <c r="HG8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="HF8" s="33"/>
-      <c r="HG8" s="33" t="s">
+      <c r="HH8" s="13"/>
+      <c r="HI8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="HH8" s="33" t="s">
+      <c r="HJ8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="HI8" s="33"/>
-      <c r="HJ8" s="33"/>
-      <c r="HK8" s="33"/>
-      <c r="HL8" s="33"/>
-      <c r="HM8" s="33"/>
-      <c r="HN8" s="33"/>
-      <c r="HO8" s="33"/>
-      <c r="HP8" s="33"/>
-      <c r="HQ8" s="33"/>
-      <c r="HR8" s="33"/>
-      <c r="HS8" s="33"/>
-      <c r="HT8" s="33"/>
-      <c r="HU8" s="33"/>
-      <c r="HV8" s="33"/>
-      <c r="HW8" s="33" t="s">
+      <c r="HK8" s="13"/>
+      <c r="HL8" s="13"/>
+      <c r="HM8" s="13"/>
+      <c r="HN8" s="13"/>
+      <c r="HO8" s="13"/>
+      <c r="HP8" s="13"/>
+      <c r="HQ8" s="13"/>
+      <c r="HR8" s="13"/>
+      <c r="HS8" s="13"/>
+      <c r="HT8" s="13"/>
+      <c r="HU8" s="13"/>
+      <c r="HV8" s="13"/>
+      <c r="HW8" s="13"/>
+      <c r="HX8" s="13"/>
+      <c r="HY8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="HX8" s="33" t="s">
+      <c r="HZ8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="HY8" s="33"/>
-      <c r="HZ8" s="33"/>
-      <c r="IA8" s="33"/>
-      <c r="IB8" s="33"/>
-      <c r="IC8" s="33" t="s">
+      <c r="IA8" s="13"/>
+      <c r="IB8" s="13"/>
+      <c r="IC8" s="13"/>
+      <c r="ID8" s="13"/>
+      <c r="IE8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="ID8" s="33" t="s">
+      <c r="IF8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="IE8" s="33" t="s">
+      <c r="IG8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="IF8" s="33" t="s">
+      <c r="IH8" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="IG8" s="29" t="s">
+      <c r="II8" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="IH8" s="29" t="s">
+      <c r="IJ8" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="II8" s="29" t="s">
+      <c r="IK8" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="IJ8" s="29" t="s">
+      <c r="IL8" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="IK8" s="29" t="s">
+      <c r="IM8" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="IL8" s="29" t="s">
+      <c r="IN8" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="IM8" s="29" t="s">
+      <c r="IO8" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="IN8" s="29" t="s">
+      <c r="IP8" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="IO8" s="29" t="s">
+      <c r="IQ8" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="IP8" s="29" t="s">
+      <c r="IR8" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="IQ8" s="29" t="s">
+      <c r="IS8" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="IR8" s="29" t="s">
+      <c r="IT8" s="9" t="s">
         <v>576</v>
       </c>
     </row>
@@ -7518,11 +7543,37 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
+      <UserInfo>
+        <DisplayName>Brent Rine</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c267871d-e92d-4bec-a268-edb541a91654">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBCC0D8A7D6FE0469D1BA865BCA834CE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aad8b0e827a3cbb82db805bd49dada19">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c267871d-e92d-4bec-a268-edb541a91654" xmlns:ns3="4654e9f1-a236-4d55-b6c2-932c37e5d109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1addc3745f171cb8e6bf468ebd5ceb5" ns2:_="" ns3:_="">
     <xsd:import namespace="c267871d-e92d-4bec-a268-edb541a91654"/>
@@ -7759,34 +7810,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
-      <UserInfo>
-        <DisplayName>Brent Rine</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c267871d-e92d-4bec-a268-edb541a91654">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7848D2E-D836-421D-B297-73A1FAE0CF03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7803,23 +7846,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Testdata/Non_Oncology/Templates/ManagePopulations/EP_Continuous/LIVEHTA Automation-Test_Non_Oncology_Pop_Continuous-Master Template.xlsx
+++ b/Testdata/Non_Oncology/Templates/ManagePopulations/EP_Continuous/LIVEHTA Automation-Test_Non_Oncology_Pop_Continuous-Master Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Cytel\Templates\Non-Oncology\Test Environment\Test_Non_Oncology_Pop_Continuous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22979A0D-2594-455B-967D-C553BB5403BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C205E2-8446-4D86-ACAE-94A4E6C8C22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1000,12 +1000,6 @@
   </si>
   <si>
     <t>Inclusion &amp; Exclusion Criteria</t>
-  </si>
-  <si>
-    <t>Sub-population</t>
-  </si>
-  <si>
-    <t>Prior Therapy Group</t>
   </si>
   <si>
     <t>Number of Arms</t>
@@ -1883,6 +1877,12 @@
   </si>
   <si>
     <t>Extraction_FollowUpPeriodUnit: string</t>
+  </si>
+  <si>
+    <t>Population filter 1</t>
+  </si>
+  <si>
+    <t>Population filter 2</t>
   </si>
 </sst>
 </file>
@@ -2870,9 +2870,9 @@
   </sheetPr>
   <dimension ref="A1:IT8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL1" sqref="AL1:AO8"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -3983,10 +3983,10 @@
         <v>94</v>
       </c>
       <c r="AN4" s="21" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AO4" s="21" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AP4" s="44" t="s">
         <v>95</v>
@@ -4675,2104 +4675,2104 @@
         <v>320</v>
       </c>
       <c r="P5" s="95" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q5" s="95" t="s">
+        <v>581</v>
+      </c>
+      <c r="R5" s="95" t="s">
         <v>321</v>
       </c>
-      <c r="Q5" s="95" t="s">
+      <c r="S5" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="R5" s="95" t="s">
+      <c r="T5" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="V5" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="T5" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="U5" s="5" t="s">
+      <c r="W5" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="X5" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="Z5" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="X5" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AG5" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AI5" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AJ5" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK5" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="AI5" s="6" t="s">
+      <c r="AL5" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="AN5" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AO5" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="AO5" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="AP5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AQ5" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT5" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="AR5" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AU5" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AV5" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AW5" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="AX5" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="AV5" s="6" t="s">
+      <c r="AY5" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AW5" s="6" t="s">
+      <c r="AZ5" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="BA5" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="AY5" s="6" t="s">
+      <c r="BB5" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="AZ5" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="BA5" s="5" t="s">
+      <c r="BC5" s="95" t="s">
         <v>348</v>
       </c>
-      <c r="BB5" s="5" t="s">
+      <c r="BD5" s="95" t="s">
         <v>349</v>
       </c>
-      <c r="BC5" s="95" t="s">
+      <c r="BE5" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="BD5" s="95" t="s">
+      <c r="BF5" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="BE5" s="5" t="s">
+      <c r="BG5" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="BF5" s="5" t="s">
+      <c r="BH5" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="BG5" s="5" t="s">
+      <c r="BI5" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="BH5" s="5" t="s">
+      <c r="BJ5" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="BI5" s="5" t="s">
+      <c r="BK5" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="BJ5" s="5" t="s">
+      <c r="BL5" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM5" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="BK5" s="6" t="s">
+      <c r="BN5" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="BL5" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="BM5" s="5" t="s">
+      <c r="BO5" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="BP5" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="BN5" s="95" t="s">
+      <c r="BQ5" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="BO5" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="BP5" s="5" t="s">
+      <c r="BR5" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="BQ5" s="5" t="s">
+      <c r="BS5" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="BR5" s="95" t="s">
-        <v>363</v>
-      </c>
-      <c r="BS5" s="6" t="s">
-        <v>364</v>
-      </c>
       <c r="BT5" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BU5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="BV5" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="BW5" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="BX5" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="BY5" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="BW5" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="BX5" s="5" t="s">
+      <c r="BZ5" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="BY5" s="5" t="s">
+      <c r="CA5" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="BZ5" s="5" t="s">
+      <c r="CB5" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="CC5" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="CA5" s="6" t="s">
+      <c r="CD5" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="CB5" s="6" t="s">
+      <c r="CE5" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="CC5" s="5" t="s">
+      <c r="CF5" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="CD5" s="6" t="s">
+      <c r="CG5" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="CE5" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="CF5" s="5" t="s">
+      <c r="CH5" s="95" t="s">
         <v>348</v>
       </c>
-      <c r="CG5" s="5" t="s">
+      <c r="CI5" s="95" t="s">
         <v>349</v>
       </c>
-      <c r="CH5" s="95" t="s">
+      <c r="CJ5" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="CI5" s="95" t="s">
+      <c r="CK5" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="CJ5" s="5" t="s">
+      <c r="CL5" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="CK5" s="5" t="s">
+      <c r="CM5" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="CL5" s="5" t="s">
+      <c r="CN5" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="CM5" s="5" t="s">
+      <c r="CO5" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="CN5" s="5" t="s">
+      <c r="CP5" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="CO5" s="5" t="s">
+      <c r="CQ5" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="CR5" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="CP5" s="6" t="s">
+      <c r="CS5" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="CQ5" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="CR5" s="5" t="s">
+      <c r="CT5" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="CU5" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="CS5" s="95" t="s">
+      <c r="CV5" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="CT5" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="CU5" s="5" t="s">
+      <c r="CW5" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="CV5" s="5" t="s">
+      <c r="CX5" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="CW5" s="95" t="s">
-        <v>363</v>
-      </c>
-      <c r="CX5" s="6" t="s">
-        <v>364</v>
-      </c>
       <c r="CY5" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="CZ5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="DA5" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="DB5" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="DC5" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="DD5" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="DB5" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="DC5" s="5" t="s">
+      <c r="DE5" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="DD5" s="5" t="s">
+      <c r="DF5" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="DE5" s="5" t="s">
+      <c r="DG5" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="DH5" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="DF5" s="6" t="s">
+      <c r="DI5" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="DG5" s="6" t="s">
+      <c r="DJ5" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="DH5" s="5" t="s">
+      <c r="DK5" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="DI5" s="6" t="s">
+      <c r="DL5" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="DJ5" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="DK5" s="5" t="s">
+      <c r="DM5" s="95" t="s">
         <v>348</v>
       </c>
-      <c r="DL5" s="5" t="s">
+      <c r="DN5" s="95" t="s">
         <v>349</v>
       </c>
-      <c r="DM5" s="95" t="s">
+      <c r="DO5" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="DN5" s="95" t="s">
+      <c r="DP5" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="DO5" s="5" t="s">
+      <c r="DQ5" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="DP5" s="5" t="s">
+      <c r="DR5" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="DQ5" s="5" t="s">
+      <c r="DS5" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="DR5" s="5" t="s">
+      <c r="DT5" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="DS5" s="5" t="s">
+      <c r="DU5" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="DT5" s="5" t="s">
+      <c r="DV5" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="DW5" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="DU5" s="6" t="s">
+      <c r="DX5" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="DV5" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="DW5" s="5" t="s">
+      <c r="DY5" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="DZ5" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="DX5" s="95" t="s">
+      <c r="EA5" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="DY5" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="DZ5" s="5" t="s">
+      <c r="EB5" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="EA5" s="5" t="s">
+      <c r="EC5" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="EB5" s="95" t="s">
+      <c r="ED5" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="EE5" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="EC5" s="6" t="s">
+      <c r="EF5" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="EG5" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="ED5" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="EE5" s="6" t="s">
+      <c r="EH5" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="EF5" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="EG5" s="5" t="s">
+      <c r="EI5" s="95" t="s">
         <v>366</v>
       </c>
-      <c r="EH5" s="5" t="s">
+      <c r="EJ5" s="95" t="s">
         <v>367</v>
       </c>
-      <c r="EI5" s="95" t="s">
+      <c r="EK5" s="95" t="s">
         <v>368</v>
       </c>
-      <c r="EJ5" s="95" t="s">
+      <c r="EL5" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="EK5" s="95" t="s">
+      <c r="EM5" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="EN5" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="EL5" s="6" t="s">
+      <c r="EO5" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="EM5" s="6" t="s">
+      <c r="EP5" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="EQ5" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="ER5" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="ES5" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="ET5" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="EU5" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="EV5" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="EW5" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EX5" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EY5" s="95" t="s">
+        <v>380</v>
+      </c>
+      <c r="EZ5" s="95" t="s">
+        <v>381</v>
+      </c>
+      <c r="FA5" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="FB5" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="FC5" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="FD5" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="FE5" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="FF5" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="FG5" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="FH5" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="FI5" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="FJ5" s="95" t="s">
+        <v>390</v>
+      </c>
+      <c r="FK5" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="FL5" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="FM5" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="FN5" s="95" t="s">
+        <v>394</v>
+      </c>
+      <c r="FO5" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="FP5" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="FQ5" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="FR5" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="FS5" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="FT5" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="FU5" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="FV5" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="FW5" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="FX5" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="FY5" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="FZ5" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="GA5" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="GB5" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="GC5" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="GD5" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="GE5" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="GF5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="GG5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="GH5" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="GI5" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="GJ5" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="GK5" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="GL5" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="GM5" s="95" t="s">
+        <v>394</v>
+      </c>
+      <c r="GN5" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="GO5" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="GP5" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="GQ5" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="GR5" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="GS5" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="GT5" s="95" t="s">
+        <v>416</v>
+      </c>
+      <c r="GU5" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="GV5" s="95" t="s">
+        <v>418</v>
+      </c>
+      <c r="GW5" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="GX5" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="GY5" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="GZ5" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="HA5" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="HB5" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="EN5" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="EO5" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="EP5" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="EQ5" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="ER5" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="ES5" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="ET5" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="EU5" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="EV5" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EW5" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="EX5" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="EY5" s="95" t="s">
-        <v>382</v>
-      </c>
-      <c r="EZ5" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="FA5" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="FB5" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="FC5" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="FD5" s="95" t="s">
-        <v>387</v>
-      </c>
-      <c r="FE5" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="FF5" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="FG5" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="FH5" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="FI5" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="FJ5" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="FK5" s="95" t="s">
-        <v>393</v>
-      </c>
-      <c r="FL5" s="95" t="s">
-        <v>394</v>
-      </c>
-      <c r="FM5" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="FN5" s="95" t="s">
-        <v>396</v>
-      </c>
-      <c r="FO5" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="FP5" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="FQ5" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="FR5" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="FS5" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="FT5" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="FU5" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="FV5" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="FW5" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="FX5" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="FY5" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="FZ5" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="GA5" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="GB5" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="GC5" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="GD5" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="GE5" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="GF5" s="6" t="s">
+      <c r="HC5" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="HD5" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="HE5" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="HF5" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="GG5" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="GH5" s="5" t="s">
+      <c r="HG5" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="GI5" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="GJ5" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="GK5" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="GL5" s="95" t="s">
-        <v>394</v>
-      </c>
-      <c r="GM5" s="95" t="s">
-        <v>396</v>
-      </c>
-      <c r="GN5" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="GO5" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="GP5" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="GQ5" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="GR5" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="GS5" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="GT5" s="95" t="s">
-        <v>418</v>
-      </c>
-      <c r="GU5" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="GV5" s="95" t="s">
-        <v>420</v>
-      </c>
-      <c r="GW5" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="GX5" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="GY5" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="GZ5" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="HA5" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="HB5" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="HC5" s="5" t="s">
+      <c r="HH5" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="HD5" s="6" t="s">
+      <c r="HI5" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="HE5" s="6" t="s">
+      <c r="HJ5" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="HF5" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="HG5" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="HH5" s="5" t="s">
+      <c r="HK5" s="95" t="s">
         <v>427</v>
       </c>
-      <c r="HI5" s="6" t="s">
+      <c r="HL5" s="95" t="s">
         <v>428</v>
       </c>
-      <c r="HJ5" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="HK5" s="95" t="s">
+      <c r="HM5" s="95" t="s">
         <v>429</v>
       </c>
-      <c r="HL5" s="95" t="s">
+      <c r="HN5" s="95" t="s">
         <v>430</v>
       </c>
-      <c r="HM5" s="95" t="s">
+      <c r="HO5" s="95" t="s">
         <v>431</v>
       </c>
-      <c r="HN5" s="95" t="s">
+      <c r="HP5" s="95" t="s">
         <v>432</v>
       </c>
-      <c r="HO5" s="95" t="s">
+      <c r="HQ5" s="95" t="s">
         <v>433</v>
       </c>
-      <c r="HP5" s="95" t="s">
+      <c r="HR5" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="HQ5" s="95" t="s">
+      <c r="HS5" s="95" t="s">
         <v>435</v>
       </c>
-      <c r="HR5" s="95" t="s">
+      <c r="HT5" s="95" t="s">
         <v>436</v>
       </c>
-      <c r="HS5" s="95" t="s">
+      <c r="HU5" s="95" t="s">
         <v>437</v>
       </c>
-      <c r="HT5" s="95" t="s">
+      <c r="HV5" s="95" t="s">
         <v>438</v>
       </c>
-      <c r="HU5" s="95" t="s">
+      <c r="HW5" s="95" t="s">
         <v>439</v>
       </c>
-      <c r="HV5" s="95" t="s">
+      <c r="HX5" s="95" t="s">
         <v>440</v>
       </c>
-      <c r="HW5" s="95" t="s">
+      <c r="HY5" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="HX5" s="95" t="s">
+      <c r="HZ5" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="IA5" s="95" t="s">
         <v>442</v>
       </c>
-      <c r="HY5" s="6" t="s">
+      <c r="IB5" s="95" t="s">
         <v>443</v>
       </c>
-      <c r="HZ5" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="IA5" s="95" t="s">
+      <c r="IC5" s="95" t="s">
         <v>444</v>
       </c>
-      <c r="IB5" s="95" t="s">
+      <c r="ID5" s="95" t="s">
         <v>445</v>
       </c>
-      <c r="IC5" s="95" t="s">
+      <c r="IE5" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="ID5" s="95" t="s">
+      <c r="IF5" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="IG5" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="IE5" s="6" t="s">
+      <c r="IH5" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="II5" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="IF5" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="IG5" s="6" t="s">
+      <c r="IJ5" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="IH5" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="II5" s="5" t="s">
+      <c r="IK5" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="IJ5" s="5" t="s">
+      <c r="IL5" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="IM5" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="IK5" s="6" t="s">
+      <c r="IN5" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="IL5" s="6" t="s">
+      <c r="IO5" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="IM5" s="5" t="s">
+      <c r="IP5" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="IN5" s="6" t="s">
+      <c r="IQ5" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="IO5" s="6" t="s">
+      <c r="IR5" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="IP5" s="5" t="s">
+      <c r="IS5" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="IQ5" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="IR5" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="IS5" s="6" t="s">
-        <v>457</v>
-      </c>
       <c r="IT5" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:254" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="W6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y6" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="Z6" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="W6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="Y6" s="9" t="s">
+      <c r="AA6" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="AB6" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AC6" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AD6" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AE6" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AF6" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AG6" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="AF6" s="9" t="s">
+      <c r="AH6" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AI6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="AK6" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AL6" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="AP6" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="AI6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="AJ6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="AL6" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="AM6" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="AN6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="AO6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AR6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS6" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="AQ6" s="9" t="s">
+      <c r="AT6" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="AR6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="AS6" s="9" t="s">
+      <c r="AU6" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="AT6" s="9" t="s">
+      <c r="AV6" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="AX6" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="AU6" s="9" t="s">
+      <c r="AY6" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="AV6" s="9" t="s">
+      <c r="AZ6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="BA6" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="BB6" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="BC6" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="BD6" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="BE6" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="BF6" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="BG6" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="BH6" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="BI6" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="BJ6" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="BK6" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="BM6" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="BN6" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="BO6" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="BP6" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="BQ6" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="BR6" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="BS6" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="BT6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="BU6" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="BV6" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="BW6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="BX6" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="BY6" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="AW6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="AX6" s="9" t="s">
+      <c r="BZ6" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="CA6" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="CB6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="CC6" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="CD6" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="CE6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="CF6" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="AY6" s="9" t="s">
+      <c r="CG6" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="AZ6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="BA6" s="9" t="s">
+      <c r="CH6" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="BB6" s="9" t="s">
+      <c r="CI6" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="BC6" s="9" t="s">
+      <c r="CJ6" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="BD6" s="9" t="s">
+      <c r="CK6" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="BE6" s="9" t="s">
+      <c r="CL6" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="BF6" s="9" t="s">
+      <c r="CM6" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="BG6" s="9" t="s">
+      <c r="CN6" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="BH6" s="9" t="s">
+      <c r="CO6" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="BI6" s="9" t="s">
+      <c r="CP6" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="CQ6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="CR6" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="BJ6" s="9" t="s">
+      <c r="CS6" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="BK6" s="9" t="s">
+      <c r="CT6" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="CU6" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="CV6" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="CW6" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="CX6" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="CY6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="CZ6" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="DA6" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="DB6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="DC6" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="DD6" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="DE6" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="DF6" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="DG6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="DH6" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="DI6" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="DJ6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="DK6" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="DL6" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="BL6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="BM6" s="9" t="s">
+      <c r="DM6" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="DN6" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="DO6" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="DP6" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="DQ6" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="DR6" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="DS6" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="DT6" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="DU6" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="DV6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="DW6" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="DX6" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="DY6" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="BN6" s="9" t="s">
+      <c r="DZ6" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="BO6" s="9" t="s">
+      <c r="EA6" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="BP6" s="9" t="s">
+      <c r="EB6" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="BQ6" s="9" t="s">
+      <c r="EC6" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="ED6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="EE6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="EF6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="EG6" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="BR6" s="9" t="s">
+      <c r="EH6" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="BS6" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="BT6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="BU6" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="BV6" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="BW6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="BX6" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="BY6" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="BZ6" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="CA6" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="CB6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="CC6" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="CD6" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="CE6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="CF6" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="CG6" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="CH6" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="CI6" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="CJ6" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="CK6" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="CL6" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="CM6" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="CN6" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="CO6" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="CP6" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="CQ6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="CR6" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="CS6" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="CT6" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="CU6" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="CV6" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="CW6" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="CX6" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="CY6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="CZ6" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="DA6" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="DB6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="DC6" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="DD6" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="DE6" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="DF6" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="DG6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="DH6" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="DI6" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="DJ6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="DK6" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="DL6" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="DM6" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="DN6" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="DO6" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="DP6" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="DQ6" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="DR6" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="DS6" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="DT6" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="DU6" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="DV6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="DW6" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="DX6" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="DY6" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="DZ6" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="EA6" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="EB6" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="EC6" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="ED6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="EE6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="EF6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="EG6" s="9" t="s">
+      <c r="EI6" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="EH6" s="9" t="s">
+      <c r="EJ6" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="EI6" s="9" t="s">
+      <c r="EK6" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="EJ6" s="9" t="s">
+      <c r="EL6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="EM6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="EN6" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="EK6" s="9" t="s">
+      <c r="EO6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="EP6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="EQ6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="ER6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="ES6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="ET6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="EU6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="EV6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="EW6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="EX6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="EY6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="EZ6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FA6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FB6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FC6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FD6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FE6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="FF6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="FG6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FH6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FI6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FJ6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FK6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FL6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FM6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FN6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FO6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FP6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="FQ6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="FR6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="FS6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="FT6" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="EL6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="EM6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="EN6" s="9" t="s">
+      <c r="FU6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FV6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="FW6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="FX6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FY6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="FZ6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GA6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GB6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GC6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GD6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GE6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GF6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="GG6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="GH6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GI6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GJ6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GK6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GL6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GM6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GN6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GO6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GP6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GQ6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GR6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="GS6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="GT6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GU6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GV6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GW6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GX6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="GY6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="GZ6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="HA6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HB6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HC6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HD6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="HE6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="HF6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HG6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HH6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="HJ6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="HK6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HL6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HM6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HN6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HO6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HP6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HQ6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HR6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HS6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HT6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HU6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HV6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HW6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HX6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="HY6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="HZ6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="IA6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="IB6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="IC6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="ID6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="IE6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="IF6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="IG6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="IH6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="II6" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="EO6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="EP6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="EQ6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="ER6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="ES6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="ET6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="EU6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="EV6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="EW6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="EX6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="EY6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="EZ6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FA6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FB6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FC6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FD6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FE6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="FF6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="FG6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FH6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FI6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FJ6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FK6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FL6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FM6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FN6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FO6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FP6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="FQ6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="FR6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="FS6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="FT6" s="9" t="s">
+      <c r="IJ6" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="FU6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FV6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="FW6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="FX6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FY6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="FZ6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GA6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GB6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GC6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GD6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GE6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GF6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="GG6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="GH6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GI6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GJ6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GK6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GL6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GM6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GN6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GO6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GP6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GQ6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GR6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="GS6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="GT6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GU6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GV6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GW6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GX6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="GY6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="GZ6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="HA6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HB6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HC6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HD6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="HE6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="HF6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HG6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HH6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HI6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="HJ6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="HK6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HL6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HM6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HN6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HO6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HP6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HQ6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HR6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HS6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HT6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HU6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HV6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HW6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HX6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="HY6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="HZ6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="IA6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="IB6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="IC6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="ID6" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="IE6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="IF6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="IG6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="IH6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="II6" s="9" t="s">
+      <c r="IK6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="IL6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="IM6" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="IJ6" s="9" t="s">
+      <c r="IN6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="IO6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="IP6" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="IK6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="IL6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="IM6" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="IN6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="IO6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="IP6" s="9" t="s">
-        <v>524</v>
-      </c>
       <c r="IQ6" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="IR6" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="IS6" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="IT6" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:254" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="I7" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="N7" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="Q7" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="N7" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="P7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="S7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="V7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y7" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="U7" s="10" t="s">
+      <c r="Z7" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="AG7" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="AH7" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="AI7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AK7" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="V7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="Y7" s="10" t="s">
+      <c r="AL7" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="AM7" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="AN7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AO7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AP7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AQ7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="AU7" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AV7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AW7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AX7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="AY7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="BA7" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="BB7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="BC7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="BD7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="BE7" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="BF7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="BG7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="BH7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="BI7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="BJ7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="BK7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="BL7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="BM7" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="BN7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="BO7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="BP7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="BQ7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="BR7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="BS7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="BT7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="BU7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="BV7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="BW7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="BX7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="BY7" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="BZ7" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="CA7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="CB7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="CC7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="CD7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="CE7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="CF7" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="CG7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="CH7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="CI7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="CJ7" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="CK7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="CL7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="CM7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="CN7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="CO7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="CP7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="CQ7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="CR7" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="CS7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="CT7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="CU7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="CV7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="CW7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="CX7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="CY7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="CZ7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="DA7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="DB7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="DC7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="DD7" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="DE7" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="AC7" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD7" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="AE7" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="AF7" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="AG7" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="AH7" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="AI7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AJ7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AK7" s="9" t="s">
+      <c r="DF7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="DG7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="DH7" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="AL7" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM7" s="10" t="s">
+      <c r="DI7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="DJ7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="DK7" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="AN7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AO7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AP7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AQ7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AR7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AS7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AT7" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="AU7" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="AV7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AW7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AX7" s="10" t="s">
+      <c r="DL7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="DM7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="DN7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="DO7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="AY7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AZ7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="BA7" s="10" t="s">
+      <c r="DP7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="DQ7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="DR7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="DS7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="DT7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="DU7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="DV7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="DW7" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="BB7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="BC7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="BD7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="BE7" s="10" t="s">
+      <c r="DX7" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="BF7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="BG7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="BH7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="BI7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="BJ7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="BK7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="BL7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="BM7" s="10" t="s">
+      <c r="DY7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="DZ7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="EA7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="EB7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="EC7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="ED7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="EE7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="EF7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="EG7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="EH7" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="BN7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="BO7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="BP7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="BQ7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="BR7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="BS7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="BT7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="BU7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="BV7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="BW7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="BX7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="BY7" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="BZ7" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="CA7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="CB7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="CC7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="CD7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="CE7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="CF7" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="CG7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="CH7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="CI7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="CJ7" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="CK7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="CL7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="CM7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="CN7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="CO7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="CP7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="CQ7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="CR7" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="CS7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="CT7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="CU7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="CV7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="CW7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="CX7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="CY7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="CZ7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="DA7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="DB7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="DC7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="DD7" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="DE7" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="DF7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="DG7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="DH7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="DI7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="DJ7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="DK7" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="DL7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="DM7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="DN7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="DO7" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="DP7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="DQ7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="DR7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="DS7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="DT7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="DU7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="DV7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="DW7" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="DX7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="DY7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="DZ7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="EA7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="EB7" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="EC7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="ED7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="EE7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="EF7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="EG7" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="EH7" s="10" t="s">
-        <v>549</v>
-      </c>
       <c r="EI7" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="EJ7" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="EK7" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="EL7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="EM7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="EN7" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="EO7" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="EP7" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="EQ7" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="ER7" s="14"/>
       <c r="ES7" s="14"/>
       <c r="ET7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="EU7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="EV7" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="EW7" s="9"/>
       <c r="EX7" s="9"/>
       <c r="EY7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="EZ7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FA7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FB7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FC7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FD7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FE7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FF7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FG7" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FH7" s="10"/>
       <c r="FI7" s="10"/>
       <c r="FJ7" s="10"/>
       <c r="FK7" s="10"/>
       <c r="FL7" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FM7" s="9"/>
       <c r="FN7" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FO7" s="9"/>
       <c r="FP7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FQ7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FR7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FS7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FT7" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="FU7" s="14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="FV7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FW7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FX7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FY7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="FZ7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GA7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GB7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GC7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GD7" s="13"/>
       <c r="GE7" s="14"/>
       <c r="GF7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GG7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GH7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GI7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GJ7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GK7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GL7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GM7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GN7" s="13"/>
       <c r="GO7" s="13"/>
       <c r="GP7" s="13"/>
       <c r="GQ7" s="13"/>
       <c r="GR7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GS7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GT7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GU7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GV7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GW7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GX7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GY7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="GZ7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="HA7" s="10"/>
       <c r="HB7" s="10"/>
       <c r="HC7" s="10"/>
       <c r="HD7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="HE7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="HF7" s="10"/>
       <c r="HG7" s="10"/>
       <c r="HH7" s="10"/>
       <c r="HI7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="HJ7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="HK7" s="10"/>
       <c r="HL7" s="10"/>
       <c r="HM7" s="10"/>
       <c r="HN7" s="10"/>
       <c r="HO7" s="14" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="HP7" s="10"/>
       <c r="HQ7" s="10"/>
@@ -6784,686 +6784,686 @@
       <c r="HW7" s="10"/>
       <c r="HX7" s="10"/>
       <c r="HY7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="HZ7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IA7" s="10"/>
       <c r="IB7" s="10"/>
       <c r="IC7" s="10"/>
       <c r="ID7" s="10"/>
       <c r="IE7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IF7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IG7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IH7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="II7" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IJ7" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IK7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IL7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IM7" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IN7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IO7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IP7" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IQ7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IR7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IS7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="IT7" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:254" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="I8" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="K8" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="M8" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="T8" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="U8" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="V8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="N8" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="O8" s="9" t="s">
+      <c r="X8" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="Y8" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AI8" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="AJ8" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="S8" s="10" t="s">
+      <c r="AK8" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="AN8" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="AO8" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="AP8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="AQ8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="U8" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="V8" s="10" t="s">
+      <c r="AR8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="AT8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="AU8" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="AV8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="AW8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="AX8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="AY8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="AZ8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="BA8" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="BB8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="BC8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="BD8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="BE8" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="BF8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="BG8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="BH8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="BI8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="BJ8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="BK8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="BL8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="BM8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="BN8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="BO8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="BP8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="BQ8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="BR8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="BS8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="BT8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="BU8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="BV8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="BW8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="BX8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="BY8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="BZ8" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="CA8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="CB8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="CC8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="CD8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="CE8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="CF8" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="CG8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="CH8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="CI8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="CJ8" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="CK8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="CL8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="CN8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="CO8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="CP8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="CQ8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="CR8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="CS8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="CT8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="CU8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="CV8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="CW8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="CX8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="CY8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="CZ8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="DA8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="DB8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="DC8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="DD8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="DE8" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="AA8" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="AB8" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="AC8" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="AE8" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="AF8" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="AG8" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="AH8" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="AI8" s="10" t="s">
+      <c r="DF8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="AJ8" s="9" t="s">
+      <c r="DG8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="AK8" s="9" t="s">
+      <c r="DH8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="DI8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="AL8" s="10" t="s">
+      <c r="DJ8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="AM8" s="10" t="s">
+      <c r="DK8" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="DL8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="DM8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="DN8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="DO8" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="DP8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="DQ8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="DR8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="DS8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="DT8" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="DU8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="AN8" s="10" t="s">
+      <c r="DV8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="AO8" s="9" t="s">
+      <c r="DW8" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="AP8" s="10" t="s">
+      <c r="DX8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="DY8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="DZ8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="EA8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="EB8" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="EC8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="ED8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="EE8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="EG8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AQ8" s="10" t="s">
+      <c r="EH8" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="EI8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AR8" s="10" t="s">
+      <c r="EJ8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AS8" s="10" t="s">
+      <c r="EK8" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AT8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="AU8" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="AV8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="AW8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="AX8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="AY8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="AZ8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="BA8" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="BB8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="BC8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="BD8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="BE8" s="10" t="s">
+      <c r="EL8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="EM8" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="EN8" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="BF8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="BG8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="BH8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="BI8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="BJ8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="BK8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="BL8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="BM8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="BN8" s="10" t="s">
+      <c r="EO8" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="BO8" s="10" t="s">
+      <c r="EP8" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="BP8" s="10" t="s">
+      <c r="EQ8" s="14" t="s">
         <v>570</v>
-      </c>
-      <c r="BQ8" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="BR8" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="BS8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="BT8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="BU8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="BV8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="BW8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="BX8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="BY8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="BZ8" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="CA8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="CB8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="CC8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="CD8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="CE8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="CF8" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="CG8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="CH8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="CI8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="CJ8" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="CK8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="CL8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="CM8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="CN8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="CO8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="CP8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="CQ8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="CR8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="CS8" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="CT8" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="CU8" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="CV8" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="CW8" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="CX8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="CY8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="CZ8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="DA8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="DB8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="DC8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="DD8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="DE8" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="DF8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="DG8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="DH8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="DI8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="DJ8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="DK8" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="DL8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="DM8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="DN8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="DO8" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="DP8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="DQ8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="DR8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="DS8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="DT8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="DU8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="DV8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="DW8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="DX8" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="DY8" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="DZ8" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="EA8" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="EB8" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="EC8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="ED8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="EE8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="EF8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="EG8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="EH8" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="EI8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="EJ8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="EK8" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="EL8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="EM8" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="EN8" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="EO8" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="EP8" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="EQ8" s="14" t="s">
-        <v>572</v>
       </c>
       <c r="ER8" s="14"/>
       <c r="ES8" s="14"/>
       <c r="ET8" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="EU8" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="EV8" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="EW8" s="9"/>
       <c r="EX8" s="9"/>
       <c r="EY8" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="EZ8" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="FA8" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="FB8" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="FC8" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="FD8" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="FE8" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="FF8" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="FG8" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="FH8" s="10"/>
       <c r="FI8" s="10"/>
       <c r="FJ8" s="10"/>
       <c r="FK8" s="10"/>
       <c r="FL8" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="FM8" s="9"/>
       <c r="FN8" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="FO8" s="9"/>
       <c r="FP8" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="FQ8" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="FR8" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="FS8" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="FT8" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="FU8" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="FV8" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="FW8" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="FX8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="FY8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="FZ8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GA8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GB8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GC8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GD8" s="13"/>
       <c r="GE8" s="13"/>
       <c r="GF8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GG8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GH8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GI8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GJ8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GK8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GL8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GM8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GN8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GO8" s="13"/>
       <c r="GP8" s="13"/>
       <c r="GQ8" s="13"/>
       <c r="GR8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GS8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GT8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GU8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GV8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GW8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GX8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GY8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="GZ8" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="HA8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="HB8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="HC8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="HD8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="HE8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="HF8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="HG8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="HH8" s="13"/>
       <c r="HI8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="HJ8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="HK8" s="13"/>
       <c r="HL8" s="13"/>
@@ -7480,62 +7480,62 @@
       <c r="HW8" s="13"/>
       <c r="HX8" s="13"/>
       <c r="HY8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="HZ8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="IA8" s="13"/>
       <c r="IB8" s="13"/>
       <c r="IC8" s="13"/>
       <c r="ID8" s="13"/>
       <c r="IE8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="IF8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="IG8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="IH8" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="II8" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="IJ8" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="IK8" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="IL8" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="IM8" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="IN8" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="IO8" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="IP8" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="IQ8" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="IR8" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="IS8" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="IT8" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -7547,33 +7547,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
-      <UserInfo>
-        <DisplayName>Brent Rine</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c267871d-e92d-4bec-a268-edb541a91654">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBCC0D8A7D6FE0469D1BA865BCA834CE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aad8b0e827a3cbb82db805bd49dada19">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c267871d-e92d-4bec-a268-edb541a91654" xmlns:ns3="4654e9f1-a236-4d55-b6c2-932c37e5d109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1addc3745f171cb8e6bf468ebd5ceb5" ns2:_="" ns3:_="">
     <xsd:import namespace="c267871d-e92d-4bec-a268-edb541a91654"/>
@@ -7810,10 +7783,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
+      <UserInfo>
+        <DisplayName>Brent Rine</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c267871d-e92d-4bec-a268-edb541a91654">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7848D2E-D836-421D-B297-73A1FAE0CF03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7830,20 +7841,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7848D2E-D836-421D-B297-73A1FAE0CF03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>